--- a/msg/text/Messages.xlsx
+++ b/msg/text/Messages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TJS2" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="955">
   <si>
     <t>TJSInternalError</t>
   </si>
@@ -3650,6 +3650,21 @@
   </si>
   <si>
     <t>EMPTY_MESSAGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPSelectXP3FileOrFolder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XP3ファイルかフォルダを選択してください</t>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Select XP3 file or folder</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4020,8 +4035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4886,8 +4901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6611,10 +6626,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -8227,6 +8242,17 @@
         <v>639</v>
       </c>
     </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/msg/text/Messages.xlsx
+++ b/msg/text/Messages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TJS2" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="1033">
   <si>
     <t>TJSInternalError</t>
   </si>
@@ -1793,9 +1793,6 @@
     <t>致命的なエラー</t>
   </si>
   <si>
-    <t>Enable Digitizer</t>
-  </si>
-  <si>
     <t>統合型のタッチ デジタイザーが入力に使用されています。</t>
   </si>
   <si>
@@ -2378,16 +2375,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(info) 全 %1 ファイルが見つかりました, %2 file(s) activated. (%3ms)</t>
-    <rPh sb="7" eb="8">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">(info) 起動スクリプト読込み中 : </t>
     <rPh sb="7" eb="9">
       <t>キドウ</t>
@@ -2656,10 +2643,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TJSNotSupportedUnpackP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TVPInvalidUTF16ToUTF8</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3136,9 +3119,6 @@
     <t>TVPErrorDeviceInternalFatalError</t>
   </si>
   <si>
-    <t>TVPErrorInvalidCall</t>
-  </si>
-  <si>
     <t>TVPErrorCannotAllocateVideoMemory</t>
   </si>
   <si>
@@ -3313,10 +3293,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TVPSusiePluginUnsupportedBitmapHeader</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TVPPassthroughFailedToSetDestinationPosition</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3646,10 +3622,6 @@
   </si>
   <si>
     <t>CRLF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EMPTY_MESSAGE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3665,6 +3637,342 @@
   </si>
   <si>
     <t>Select XP3 file or folder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Debug option enabled</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Command line parameter %1 = %2 is invalid. It's used default.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Command line parameter %1 = %2 is invalid.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not implemented</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot open storage %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot find storage %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot open storage %1 for writing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot find storage %1 in archive %2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid path name %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not supported media type \"%1\"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot unbind XP3 exe %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%1 is not XP3 archive or unsupported</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Use path delimiter '&gt;' or '/'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Attention) Filename \"%1\" contains '#'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot get local name from %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Read error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Write error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Seek error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Truncate error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot allocate memory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unpompression failed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Compression failed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot write to archive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%1 is unsupported cipger mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%1 is unsupported encoding</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%1 is unsupported mode string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unknown graphic format %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot suggest graphics extension for %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mask size mismath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Province image %1 size mismatch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid image save type (%1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid operation for 8bpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid operation for 32bpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Specify Window class object</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Specify Layer class object</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot create empty layer image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot set primary layer invisible</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot move primary layer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot set parent self</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot move next to self or not siblings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot move primary or siblingless</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot move to under Other primary layer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid Image position</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot set Mode to disabled or modal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not drawable layer type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Source layer has no image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unsupported layer type %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not drawble face type %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot convert layer type using given direction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Negative opacity not supported on this face</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Source rectangle out of bitmap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Box blur area must contain center pixel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Box blur area must be smaller than 16 million</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot change focus in processing focus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Window has already primary layer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Window has no layer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Specified event %1 needs parameter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Specified event %1 needs parameter %2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Specified event name %1 is unknown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Out of Rectangle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TJSNotSupportedUnpackP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid method in updating</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot create instance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unknown wave format %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Current transition must be stopping</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transition handler error %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transition %1 already registerd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot find transition handler %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Specify transition source</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This layer cannot have image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transition source and destination must have image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot load rule graphics %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Specify option %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transition layer size mismatch %1 and %2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transition mutual source</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Warring : Method %1 %2th parameter had is ignore. Hold destination alpha parameter is now deprecated.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot connect multiple wave sound buffer at once</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid window size must be in 64 to 32768</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid overlap count must be in 2 to 32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Currently async load bitmap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid UTF-16 to UTF-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enable Digitizer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPErrorInvalidCall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPSusiePluginUnsupportedBitmapHeader</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4036,7 +4344,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4058,7 +4366,7 @@
         <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4102,10 +4410,10 @@
         <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -4614,7 +4922,7 @@
         <v>174</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -4639,7 +4947,7 @@
         <v>175</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
@@ -4686,7 +4994,7 @@
         <v>178</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
@@ -4722,7 +5030,7 @@
         <v>180</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
@@ -4782,7 +5090,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>188</v>
@@ -4793,7 +5101,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>187</v>
@@ -4804,7 +5112,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>190</v>
@@ -4815,7 +5123,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>202</v>
@@ -4826,7 +5134,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>203</v>
@@ -4837,7 +5145,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>204</v>
@@ -4848,7 +5156,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>196</v>
@@ -4859,7 +5167,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>195</v>
@@ -4870,7 +5178,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>200</v>
@@ -4881,7 +5189,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>714</v>
+        <v>1009</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>201</v>
@@ -4901,8 +5209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4933,7 +5241,7 @@
         <v>294</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -4944,7 +5252,7 @@
         <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -4966,7 +5274,7 @@
         <v>297</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -4977,7 +5285,7 @@
         <v>298</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -4988,7 +5296,7 @@
         <v>301</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -4999,7 +5307,7 @@
         <v>299</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -5021,7 +5329,7 @@
         <v>302</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -5032,7 +5340,7 @@
         <v>303</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -5043,7 +5351,7 @@
         <v>304</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -5054,7 +5362,7 @@
         <v>305</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -5065,7 +5373,7 @@
         <v>306</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -5076,7 +5384,7 @@
         <v>307</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -5087,7 +5395,7 @@
         <v>308</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -5098,7 +5406,7 @@
         <v>309</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -5109,7 +5417,7 @@
         <v>310</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>951</v>
+        <v>960</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -5120,7 +5428,7 @@
         <v>311</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>951</v>
+        <v>961</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -5131,7 +5439,7 @@
         <v>312</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>951</v>
+        <v>962</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -5142,7 +5450,7 @@
         <v>313</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -5153,7 +5461,7 @@
         <v>314</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>951</v>
+        <v>964</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -5164,7 +5472,7 @@
         <v>315</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>951</v>
+        <v>965</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -5175,7 +5483,7 @@
         <v>316</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>951</v>
+        <v>966</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -5186,7 +5494,7 @@
         <v>317</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>951</v>
+        <v>967</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -5197,7 +5505,7 @@
         <v>318</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>951</v>
+        <v>968</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -5208,7 +5516,7 @@
         <v>319</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>951</v>
+        <v>969</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -5219,7 +5527,7 @@
         <v>320</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>951</v>
+        <v>970</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -5230,7 +5538,7 @@
         <v>321</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>951</v>
+        <v>971</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -5241,7 +5549,7 @@
         <v>322</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>951</v>
+        <v>972</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -5252,7 +5560,7 @@
         <v>323</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>951</v>
+        <v>973</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -5263,7 +5571,7 @@
         <v>324</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>951</v>
+        <v>974</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -5274,7 +5582,7 @@
         <v>325</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>951</v>
+        <v>975</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -5285,7 +5593,7 @@
         <v>326</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>951</v>
+        <v>976</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -5296,7 +5604,7 @@
         <v>327</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>951</v>
+        <v>977</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -5307,7 +5615,7 @@
         <v>328</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -5318,7 +5626,7 @@
         <v>329</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -5329,7 +5637,7 @@
         <v>330</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -5340,7 +5648,7 @@
         <v>331</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -5351,7 +5659,7 @@
         <v>332</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -5362,7 +5670,7 @@
         <v>333</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -5373,7 +5681,7 @@
         <v>334</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>951</v>
+        <v>979</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -5384,7 +5692,7 @@
         <v>335</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>951</v>
+        <v>980</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -5395,7 +5703,7 @@
         <v>336</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>951</v>
+        <v>981</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -5406,7 +5714,7 @@
         <v>337</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>951</v>
+        <v>982</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -5417,7 +5725,7 @@
         <v>338</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>951</v>
+        <v>983</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -5428,7 +5736,7 @@
         <v>339</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>951</v>
+        <v>984</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -5439,7 +5747,7 @@
         <v>340</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>951</v>
+        <v>985</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -5450,7 +5758,7 @@
         <v>341</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>951</v>
+        <v>986</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -5461,7 +5769,7 @@
         <v>342</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>951</v>
+        <v>987</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -5472,7 +5780,7 @@
         <v>343</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>951</v>
+        <v>988</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -5483,7 +5791,7 @@
         <v>344</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>951</v>
+        <v>989</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -5494,7 +5802,7 @@
         <v>345</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>951</v>
+        <v>990</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -5505,7 +5813,7 @@
         <v>346</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>951</v>
+        <v>991</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -5516,7 +5824,7 @@
         <v>347</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>951</v>
+        <v>992</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -5527,7 +5835,7 @@
         <v>348</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>951</v>
+        <v>993</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -5538,7 +5846,7 @@
         <v>349</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>951</v>
+        <v>994</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -5549,7 +5857,7 @@
         <v>350</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>951</v>
+        <v>995</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -5560,7 +5868,7 @@
         <v>351</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>951</v>
+        <v>996</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -5571,7 +5879,7 @@
         <v>352</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>951</v>
+        <v>997</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -5582,7 +5890,7 @@
         <v>353</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>951</v>
+        <v>998</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -5593,7 +5901,7 @@
         <v>354</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>951</v>
+        <v>999</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -5604,7 +5912,7 @@
         <v>355</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>951</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -5615,7 +5923,7 @@
         <v>356</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>951</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -5626,7 +5934,7 @@
         <v>357</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>951</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -5637,7 +5945,7 @@
         <v>358</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>951</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -5648,7 +5956,7 @@
         <v>359</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>951</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -5659,7 +5967,7 @@
         <v>360</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>951</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -5670,7 +5978,7 @@
         <v>361</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>951</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -5681,7 +5989,7 @@
         <v>362</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>951</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -5692,7 +6000,7 @@
         <v>363</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>951</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -5703,7 +6011,7 @@
         <v>364</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>951</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -5714,7 +6022,7 @@
         <v>365</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>951</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -5725,7 +6033,7 @@
         <v>366</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>951</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -5736,7 +6044,7 @@
         <v>367</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>951</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -5747,7 +6055,7 @@
         <v>368</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>951</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -5758,7 +6066,7 @@
         <v>369</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>951</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -5769,7 +6077,7 @@
         <v>370</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>951</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -5780,7 +6088,7 @@
         <v>371</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>951</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -5791,7 +6099,7 @@
         <v>372</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>951</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
@@ -5802,7 +6110,7 @@
         <v>373</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>951</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
@@ -5813,7 +6121,7 @@
         <v>374</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>951</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
@@ -5824,7 +6132,7 @@
         <v>375</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>951</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
@@ -5835,7 +6143,7 @@
         <v>376</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>951</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
@@ -5846,7 +6154,7 @@
         <v>377</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>951</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
@@ -5857,7 +6165,7 @@
         <v>378</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>951</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
@@ -5868,7 +6176,7 @@
         <v>379</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>951</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
@@ -5879,7 +6187,7 @@
         <v>380</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>951</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
@@ -5890,18 +6198,18 @@
         <v>381</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>951</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>951</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
@@ -5917,21 +6225,21 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>951</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>472</v>
@@ -5942,10 +6250,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>473</v>
@@ -5956,10 +6264,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>483</v>
@@ -5970,10 +6278,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>480</v>
@@ -5984,10 +6292,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>481</v>
@@ -5998,10 +6306,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>474</v>
@@ -6012,10 +6320,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>676</v>
+        <v>484</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>484</v>
@@ -6026,7 +6334,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>475</v>
@@ -6040,7 +6348,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>476</v>
@@ -6054,7 +6362,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>482</v>
@@ -6068,7 +6376,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>477</v>
@@ -6082,10 +6390,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>478</v>
@@ -6096,7 +6404,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>479</v>
@@ -6110,7 +6418,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>486</v>
@@ -6124,7 +6432,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>487</v>
@@ -6146,7 +6454,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>491</v>
@@ -6157,10 +6465,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>492</v>
@@ -6168,10 +6476,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>493</v>
@@ -6179,7 +6487,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>494</v>
@@ -6190,7 +6498,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>495</v>
@@ -6201,7 +6509,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>496</v>
@@ -6212,7 +6520,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>497</v>
@@ -6223,7 +6531,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>498</v>
@@ -6234,7 +6542,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>499</v>
@@ -6245,10 +6553,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>500</v>
@@ -6256,10 +6564,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>501</v>
@@ -6267,7 +6575,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>502</v>
@@ -6278,7 +6586,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>503</v>
@@ -6289,10 +6597,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>504</v>
@@ -6300,10 +6608,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>505</v>
@@ -6311,10 +6619,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>506</v>
@@ -6322,10 +6630,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>507</v>
@@ -6333,10 +6641,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>508</v>
@@ -6344,10 +6652,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>509</v>
@@ -6355,7 +6663,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>510</v>
@@ -6366,10 +6674,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>511</v>
@@ -6377,7 +6685,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>512</v>
@@ -6388,7 +6696,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>513</v>
@@ -6399,7 +6707,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>514</v>
@@ -6410,7 +6718,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>515</v>
@@ -6421,7 +6729,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>516</v>
@@ -6432,10 +6740,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>517</v>
@@ -6443,10 +6751,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>518</v>
@@ -6454,10 +6762,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>519</v>
@@ -6465,10 +6773,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>520</v>
@@ -6476,7 +6784,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>521</v>
@@ -6487,7 +6795,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>522</v>
@@ -6498,7 +6806,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>523</v>
@@ -6509,7 +6817,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>524</v>
@@ -6520,10 +6828,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>525</v>
@@ -6531,10 +6839,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>526</v>
@@ -6542,10 +6850,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>527</v>
@@ -6553,10 +6861,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>528</v>
@@ -6564,10 +6872,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>529</v>
@@ -6575,10 +6883,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>530</v>
@@ -6586,10 +6894,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>531</v>
@@ -6597,10 +6905,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>532</v>
@@ -6608,10 +6916,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>533</v>
@@ -6628,8 +6936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6660,7 +6968,7 @@
         <v>428</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -6671,7 +6979,7 @@
         <v>429</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -6682,7 +6990,7 @@
         <v>430</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -6693,7 +7001,7 @@
         <v>431</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -6704,7 +7012,7 @@
         <v>432</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -6715,7 +7023,7 @@
         <v>433</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -6726,7 +7034,7 @@
         <v>434</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -6737,7 +7045,7 @@
         <v>435</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -6748,7 +7056,7 @@
         <v>436</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -6759,7 +7067,7 @@
         <v>437</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -6770,7 +7078,7 @@
         <v>438</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -6781,7 +7089,7 @@
         <v>439</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -6792,7 +7100,7 @@
         <v>440</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -6803,7 +7111,7 @@
         <v>441</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -6814,7 +7122,7 @@
         <v>442</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -6825,7 +7133,7 @@
         <v>443</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -6836,7 +7144,7 @@
         <v>444</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -6847,7 +7155,7 @@
         <v>445</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -6858,7 +7166,7 @@
         <v>446</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -6869,7 +7177,7 @@
         <v>447</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -6880,7 +7188,7 @@
         <v>448</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -6891,7 +7199,7 @@
         <v>449</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -6902,7 +7210,7 @@
         <v>450</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -6913,7 +7221,7 @@
         <v>451</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -6924,7 +7232,7 @@
         <v>452</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -6935,7 +7243,7 @@
         <v>453</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -6946,7 +7254,7 @@
         <v>454</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -6957,7 +7265,7 @@
         <v>455</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -6968,7 +7276,7 @@
         <v>456</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -6979,7 +7287,7 @@
         <v>457</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -6990,7 +7298,7 @@
         <v>458</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -7001,7 +7309,7 @@
         <v>459</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -7012,7 +7320,7 @@
         <v>460</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -7023,7 +7331,7 @@
         <v>461</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -7034,7 +7342,7 @@
         <v>462</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -7045,7 +7353,7 @@
         <v>463</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -7056,7 +7364,7 @@
         <v>464</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -7067,7 +7375,7 @@
         <v>465</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -7078,7 +7386,7 @@
         <v>466</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -7089,7 +7397,7 @@
         <v>467</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -7100,7 +7408,7 @@
         <v>468</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -7111,7 +7419,7 @@
         <v>469</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -7122,7 +7430,7 @@
         <v>470</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -7133,12 +7441,12 @@
         <v>471</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>536</v>
@@ -7152,7 +7460,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>537</v>
@@ -7163,7 +7471,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>538</v>
@@ -7174,7 +7482,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>539</v>
@@ -7185,7 +7493,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>541</v>
@@ -7196,7 +7504,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>540</v>
@@ -7207,7 +7515,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>542</v>
@@ -7218,7 +7526,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>544</v>
@@ -7229,7 +7537,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>543</v>
@@ -7240,7 +7548,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>545</v>
@@ -7251,10 +7559,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>546</v>
@@ -7262,10 +7570,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>547</v>
@@ -7273,7 +7581,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>548</v>
@@ -7284,7 +7592,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>549</v>
@@ -7295,7 +7603,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>550</v>
@@ -7306,7 +7614,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>551</v>
@@ -7317,10 +7625,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>553</v>
@@ -7328,21 +7636,21 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>554</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>555</v>
@@ -7350,10 +7658,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>556</v>
@@ -7361,178 +7669,178 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>557</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>558</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>489</v>
@@ -7540,527 +7848,527 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>821</v>
+        <v>1031</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>867</v>
+        <v>1032</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>478</v>
@@ -8068,189 +8376,189 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>

--- a/msg/text/Messages.xlsx
+++ b/msg/text/Messages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TJS2" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="1034">
   <si>
     <t>TJSInternalError</t>
   </si>
@@ -1790,9 +1790,6 @@
     <t>Exit code: %d\n</t>
   </si>
   <si>
-    <t>致命的なエラー</t>
-  </si>
-  <si>
     <t>統合型のタッチ デジタイザーが入力に使用されています。</t>
   </si>
   <si>
@@ -2291,13 +2288,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>不明エラー</t>
-    <rPh sb="0" eb="2">
-      <t>フメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>終了コード: %d\n</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
@@ -3173,10 +3163,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TVPUnknonwError</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TVPExitCode</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3973,6 +3959,37 @@
   </si>
   <si>
     <t>TVPSusiePluginUnsupportedBitmapHeader</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>致命的なエラーが発生しました</t>
+    <rPh sb="8" eb="10">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPUnknownError</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不明なエラーが発生しました。</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2の累乗サイズのサーフェイスを使用します。</t>
+    <rPh sb="2" eb="4">
+      <t>ルイジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4366,7 +4383,7 @@
         <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4410,10 +4427,10 @@
         <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -4922,7 +4939,7 @@
         <v>174</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -4947,7 +4964,7 @@
         <v>175</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
@@ -4994,7 +5011,7 @@
         <v>178</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
@@ -5030,7 +5047,7 @@
         <v>180</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
@@ -5090,7 +5107,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>188</v>
@@ -5101,7 +5118,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>187</v>
@@ -5112,7 +5129,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>190</v>
@@ -5123,7 +5140,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>202</v>
@@ -5134,7 +5151,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>203</v>
@@ -5145,7 +5162,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>204</v>
@@ -5156,7 +5173,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>196</v>
@@ -5167,7 +5184,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>195</v>
@@ -5178,7 +5195,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>200</v>
@@ -5189,7 +5206,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>201</v>
@@ -5209,7 +5226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5241,7 +5258,7 @@
         <v>294</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -5252,7 +5269,7 @@
         <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -5274,7 +5291,7 @@
         <v>297</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -5285,7 +5302,7 @@
         <v>298</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -5296,7 +5313,7 @@
         <v>301</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -5307,7 +5324,7 @@
         <v>299</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -5318,7 +5335,7 @@
         <v>300</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -5329,7 +5346,7 @@
         <v>302</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -5340,7 +5357,7 @@
         <v>303</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -5351,7 +5368,7 @@
         <v>304</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -5362,7 +5379,7 @@
         <v>305</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -5373,7 +5390,7 @@
         <v>306</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -5384,7 +5401,7 @@
         <v>307</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -5395,7 +5412,7 @@
         <v>308</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -5406,7 +5423,7 @@
         <v>309</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -5417,7 +5434,7 @@
         <v>310</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -5428,7 +5445,7 @@
         <v>311</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -5439,7 +5456,7 @@
         <v>312</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -5450,7 +5467,7 @@
         <v>313</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -5461,7 +5478,7 @@
         <v>314</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -5472,7 +5489,7 @@
         <v>315</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -5483,7 +5500,7 @@
         <v>316</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -5494,7 +5511,7 @@
         <v>317</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -5505,7 +5522,7 @@
         <v>318</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -5516,7 +5533,7 @@
         <v>319</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -5527,7 +5544,7 @@
         <v>320</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -5538,7 +5555,7 @@
         <v>321</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -5549,7 +5566,7 @@
         <v>322</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -5560,7 +5577,7 @@
         <v>323</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -5571,7 +5588,7 @@
         <v>324</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -5582,7 +5599,7 @@
         <v>325</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -5593,7 +5610,7 @@
         <v>326</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -5604,7 +5621,7 @@
         <v>327</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -5615,7 +5632,7 @@
         <v>328</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -5626,7 +5643,7 @@
         <v>329</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -5637,7 +5654,7 @@
         <v>330</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -5648,7 +5665,7 @@
         <v>331</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -5659,7 +5676,7 @@
         <v>332</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -5670,7 +5687,7 @@
         <v>333</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -5681,7 +5698,7 @@
         <v>334</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -5692,7 +5709,7 @@
         <v>335</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -5703,7 +5720,7 @@
         <v>336</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -5714,7 +5731,7 @@
         <v>337</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -5725,7 +5742,7 @@
         <v>338</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -5736,7 +5753,7 @@
         <v>339</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -5747,7 +5764,7 @@
         <v>340</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -5758,7 +5775,7 @@
         <v>341</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -5769,7 +5786,7 @@
         <v>342</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -5780,7 +5797,7 @@
         <v>343</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -5791,7 +5808,7 @@
         <v>344</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -5802,7 +5819,7 @@
         <v>345</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -5813,7 +5830,7 @@
         <v>346</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -5824,7 +5841,7 @@
         <v>347</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -5835,7 +5852,7 @@
         <v>348</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -5846,7 +5863,7 @@
         <v>349</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -5857,7 +5874,7 @@
         <v>350</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -5868,7 +5885,7 @@
         <v>351</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -5879,7 +5896,7 @@
         <v>352</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -5890,7 +5907,7 @@
         <v>353</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -5901,7 +5918,7 @@
         <v>354</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -5912,7 +5929,7 @@
         <v>355</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -5923,7 +5940,7 @@
         <v>356</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -5934,7 +5951,7 @@
         <v>357</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -5945,7 +5962,7 @@
         <v>358</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -5956,7 +5973,7 @@
         <v>359</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -5967,7 +5984,7 @@
         <v>360</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -5978,7 +5995,7 @@
         <v>361</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -5989,7 +6006,7 @@
         <v>362</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -6000,7 +6017,7 @@
         <v>363</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -6011,7 +6028,7 @@
         <v>364</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -6022,7 +6039,7 @@
         <v>365</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -6033,7 +6050,7 @@
         <v>366</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -6044,7 +6061,7 @@
         <v>367</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -6055,7 +6072,7 @@
         <v>368</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -6066,7 +6083,7 @@
         <v>369</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -6077,7 +6094,7 @@
         <v>370</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -6088,7 +6105,7 @@
         <v>371</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -6099,7 +6116,7 @@
         <v>372</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
@@ -6110,7 +6127,7 @@
         <v>373</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
@@ -6121,7 +6138,7 @@
         <v>374</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
@@ -6132,7 +6149,7 @@
         <v>375</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
@@ -6143,7 +6160,7 @@
         <v>376</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
@@ -6154,7 +6171,7 @@
         <v>377</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
@@ -6165,7 +6182,7 @@
         <v>378</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
@@ -6176,7 +6193,7 @@
         <v>379</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
@@ -6187,7 +6204,7 @@
         <v>380</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
@@ -6198,18 +6215,18 @@
         <v>381</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
@@ -6225,21 +6242,21 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>472</v>
@@ -6250,10 +6267,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>473</v>
@@ -6264,10 +6281,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>483</v>
@@ -6278,10 +6295,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>480</v>
@@ -6292,10 +6309,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>481</v>
@@ -6306,10 +6323,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>474</v>
@@ -6320,7 +6337,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>484</v>
@@ -6334,7 +6351,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>475</v>
@@ -6348,7 +6365,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>476</v>
@@ -6362,7 +6379,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>482</v>
@@ -6376,7 +6393,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>477</v>
@@ -6390,10 +6407,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>478</v>
@@ -6404,7 +6421,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>479</v>
@@ -6418,7 +6435,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>486</v>
@@ -6432,7 +6449,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>487</v>
@@ -6454,7 +6471,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>491</v>
@@ -6465,10 +6482,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>492</v>
@@ -6476,10 +6493,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>493</v>
@@ -6487,7 +6504,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>494</v>
@@ -6498,7 +6515,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>495</v>
@@ -6509,7 +6526,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>496</v>
@@ -6520,7 +6537,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>497</v>
@@ -6531,7 +6548,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>498</v>
@@ -6542,7 +6559,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>499</v>
@@ -6553,10 +6570,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>500</v>
@@ -6564,10 +6581,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>501</v>
@@ -6575,7 +6592,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>502</v>
@@ -6586,7 +6603,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>503</v>
@@ -6597,10 +6614,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>504</v>
@@ -6608,10 +6625,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>505</v>
@@ -6619,10 +6636,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>506</v>
@@ -6630,10 +6647,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>507</v>
@@ -6641,10 +6658,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>508</v>
@@ -6652,10 +6669,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>509</v>
@@ -6663,7 +6680,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>510</v>
@@ -6674,10 +6691,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>511</v>
@@ -6685,7 +6702,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>512</v>
@@ -6696,7 +6713,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>513</v>
@@ -6707,7 +6724,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>514</v>
@@ -6718,7 +6735,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>515</v>
@@ -6729,7 +6746,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>516</v>
@@ -6740,10 +6757,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>517</v>
@@ -6751,10 +6768,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>518</v>
@@ -6762,10 +6779,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>519</v>
@@ -6773,10 +6790,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>520</v>
@@ -6784,7 +6801,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>521</v>
@@ -6795,7 +6812,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>522</v>
@@ -6806,7 +6823,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>523</v>
@@ -6817,7 +6834,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>524</v>
@@ -6828,10 +6845,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>525</v>
@@ -6839,10 +6856,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>526</v>
@@ -6850,10 +6867,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>527</v>
@@ -6861,10 +6878,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>528</v>
@@ -6872,10 +6889,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>529</v>
@@ -6883,10 +6900,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>530</v>
@@ -6894,10 +6911,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>531</v>
@@ -6905,10 +6922,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>532</v>
@@ -6916,10 +6933,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>533</v>
@@ -6936,8 +6953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6968,7 +6985,7 @@
         <v>428</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -6979,7 +6996,7 @@
         <v>429</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -6990,7 +7007,7 @@
         <v>430</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -7001,7 +7018,7 @@
         <v>431</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -7012,7 +7029,7 @@
         <v>432</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -7023,7 +7040,7 @@
         <v>433</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -7034,7 +7051,7 @@
         <v>434</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -7045,7 +7062,7 @@
         <v>435</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -7056,7 +7073,7 @@
         <v>436</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -7067,7 +7084,7 @@
         <v>437</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -7078,7 +7095,7 @@
         <v>438</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -7089,7 +7106,7 @@
         <v>439</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -7100,7 +7117,7 @@
         <v>440</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -7111,7 +7128,7 @@
         <v>441</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -7122,7 +7139,7 @@
         <v>442</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -7133,7 +7150,7 @@
         <v>443</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -7144,7 +7161,7 @@
         <v>444</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -7155,7 +7172,7 @@
         <v>445</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -7166,7 +7183,7 @@
         <v>446</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -7177,7 +7194,7 @@
         <v>447</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -7188,7 +7205,7 @@
         <v>448</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -7199,7 +7216,7 @@
         <v>449</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -7210,7 +7227,7 @@
         <v>450</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -7221,7 +7238,7 @@
         <v>451</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -7232,7 +7249,7 @@
         <v>452</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -7243,7 +7260,7 @@
         <v>453</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -7254,7 +7271,7 @@
         <v>454</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -7265,7 +7282,7 @@
         <v>455</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -7276,7 +7293,7 @@
         <v>456</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -7287,7 +7304,7 @@
         <v>457</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -7298,7 +7315,7 @@
         <v>458</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -7309,7 +7326,7 @@
         <v>459</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -7320,7 +7337,7 @@
         <v>460</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -7331,7 +7348,7 @@
         <v>461</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -7342,7 +7359,7 @@
         <v>462</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -7353,7 +7370,7 @@
         <v>463</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -7364,7 +7381,7 @@
         <v>464</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -7375,7 +7392,7 @@
         <v>465</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -7386,7 +7403,7 @@
         <v>466</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -7397,7 +7414,7 @@
         <v>467</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -7408,7 +7425,7 @@
         <v>468</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -7419,7 +7436,7 @@
         <v>469</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -7430,7 +7447,7 @@
         <v>470</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -7441,12 +7458,12 @@
         <v>471</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>536</v>
@@ -7460,7 +7477,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>537</v>
@@ -7471,7 +7488,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>538</v>
@@ -7482,7 +7499,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>539</v>
@@ -7493,7 +7510,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>541</v>
@@ -7504,7 +7521,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>540</v>
@@ -7515,7 +7532,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>542</v>
@@ -7526,7 +7543,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>544</v>
@@ -7537,7 +7554,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>543</v>
@@ -7548,7 +7565,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>545</v>
@@ -7559,10 +7576,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>546</v>
@@ -7570,10 +7587,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>547</v>
@@ -7581,7 +7598,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>548</v>
@@ -7592,7 +7609,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>549</v>
@@ -7603,7 +7620,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>550</v>
@@ -7614,7 +7631,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>551</v>
@@ -7625,10 +7642,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>553</v>
@@ -7636,21 +7653,21 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>554</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>833</v>
+        <v>1031</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>665</v>
+        <v>1032</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>555</v>
@@ -7658,10 +7675,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>556</v>
@@ -7669,178 +7686,178 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>557</v>
+        <v>1030</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>489</v>
@@ -7848,527 +7865,527 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>578</v>
+        <v>1033</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>478</v>
@@ -8376,189 +8393,189 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
   </sheetData>

--- a/msg/text/Messages.xlsx
+++ b/msg/text/Messages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="1104">
   <si>
     <t>TJSInternalError</t>
   </si>
@@ -212,12 +212,6 @@
     <t>グローバルでない場所で後置 ! 演算子が使われています(この演算子の挙動はTJS2 version 2.4.1 で変わりましたのでご注意ください)</t>
   </si>
   <si>
-    <t>ANSI 文字列を UNICODE 文字列に変換できません。現在のコードページで解釈できない文字が含まれてます。正しいデータが指定されているかを確認してください。データが破損している可能性もあります</t>
-  </si>
-  <si>
-    <t>UTF-8 文字列を UNICODE 文字列に変換できません。解釈できない文字が含まれてます。正しいデータが指定されているかを確認してください。データが破損している可能性もあります</t>
-  </si>
-  <si>
     <t>%1 から %2 へ型を変換できません</t>
   </si>
   <si>
@@ -1860,40 +1854,7 @@
     <t>Cannot allocate D3D off-screen surface/HR=%1</t>
   </si>
   <si>
-    <t>Passthrough: Failed to create Direct3D devices: %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Passthrough: Failed to create Direct3D devices: unknown reason</t>
-  </si>
-  <si>
-    <t>Passthrough: Texture has already been locked (StartBitmapCompletion() has been called twice without EndBitmapCompletion()), unlocking the texture.</t>
-  </si>
-  <si>
     <t>Internal error/HR=%1</t>
-  </si>
-  <si>
-    <t>error : Device lost. Cannot reset device.</t>
-  </si>
-  <si>
-    <t>error : Device internal fatal error.</t>
-  </si>
-  <si>
-    <t>error : Invalid call.</t>
-  </si>
-  <si>
-    <t>error : Cannot allocate video memory.</t>
-  </si>
-  <si>
-    <t>error : Cannot allocate memory.</t>
-  </si>
-  <si>
-    <t>Passthrough: (inf) Polygon drawing failed/HR=%1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Passthrough: (inf) Primary surface, IDirect3DDevice::Present failed/HR=%1</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ChangeDisplaySettings failed: DISP_CHANGE_RESTART</t>
@@ -1964,47 +1925,7 @@
     <t>Non-supported bitmap header was given from susie plug-in.</t>
   </si>
   <si>
-    <t>Passthrough: Failed to set destination position to draw device drawer</t>
-  </si>
-  <si>
-    <t>Passthrough: Failed to set destination size and source layer size to draw device drawer</t>
-  </si>
-  <si>
-    <t>Passthrough: Failed to create drawer: %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Passthrough: Failed to create drawer: unknown reason</t>
-  </si>
-  <si>
-    <t>Passthrough: Could not create drawer object %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Passthrough: Drawer object %1 does not have smooth zooming functionality</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Passthrough: Drawer object %1 does not have point-on-point zooming functionality</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Passthrough: benchmark result: %1 : %2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Fatal: Could not create any drawer objects.</t>
-  </si>
-  <si>
-    <t>Passthrough: Using passthrough draw device: %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\"passthrough\" device does not support layer manager more than 1</t>
-  </si>
-  <si>
-    <t>\"Pass Through\" デバイスでは２つ以上のLayer Managerを登録できない</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Invalid video size</t>
@@ -2256,13 +2177,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Passthrough: passthrough ドローデバイスを使用します: %1</t>
-    <rPh sb="33" eb="35">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Fatal: どの drawer オブジェクトも生成できませんでした</t>
     <rPh sb="24" eb="26">
       <t>セイセイ</t>
@@ -2270,13 +2184,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Passthrough: ベンチマーク結果: %1 : %2</t>
-    <rPh sb="19" eb="21">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>有効なデジタイザー</t>
     <rPh sb="0" eb="2">
       <t>ユウコウ</t>
@@ -2402,109 +2309,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Passthrough: Drawer の %1 はニアレストネイバー拡大縮小機能を持っていません</t>
-    <rPh sb="35" eb="37">
-      <t>カクダイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シュクショウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Passthrough: Drawer の %1 はスムース拡大縮小機能を持っていません</t>
-    <rPh sb="30" eb="32">
-      <t>カクダイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シュクショウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Passthrough: Drawer の %1 を生成できません</t>
-    <rPh sb="26" eb="28">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Passthrough: Drawer の生成に失敗しました : 不明な理由</t>
-    <rPh sb="21" eb="23">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>フメイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Passthrough: Drawer の生成に失敗しました : %1</t>
-    <rPh sb="21" eb="23">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Passthrough: Drawer への転送先サイズ、転送元レイヤーサイズの設定に失敗しました</t>
-    <rPh sb="22" eb="24">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Passthrough: Drawer への転送位置の設定に失敗しました</t>
-    <rPh sb="22" eb="24">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フォント '%1$s' は使用できません</t>
     <rPh sb="13" eb="15">
       <t>シヨウ</t>
@@ -3099,22 +2903,10 @@
     <t>TVPUsePowerOfTwoSurface</t>
   </si>
   <si>
-    <t>TVPErrorDeviceLostCannotResetDevice</t>
-  </si>
-  <si>
     <t>TVPInfoSelectedProjectDirectory</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TVPErrorDeviceInternalFatalError</t>
-  </si>
-  <si>
-    <t>TVPErrorCannotAllocateVideoMemory</t>
-  </si>
-  <si>
-    <t>TVPErrorCannotAllocateMemory</t>
-  </si>
-  <si>
     <t>TVPInfoLoadingExecutableEmbeddedOptionsFailed</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3211,30 +3003,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TVPPassthroughFailedToCreateDirect3DDevices</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TVPPassthroughFailedToCreateDirect3DDevicesUnknownReason</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TVPPassthroughTextureHasAlreadyBeenLocked</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TVPInternalErrorResult</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TVPPassthroughInfPolygonDrawingFailed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TVPPassthroughInfPrimarySurfaceDirect3DDevicePresentFailed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TVPChangeDisplaySettingsFailedDispChangeRestart</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3279,50 +3051,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TVPPassthroughFailedToSetDestinationPosition</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TVPPassthroughFailedToSetDestinationSize</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TVPPassthroughFailedToCreateDrawer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TVPPassthroughFailedToCreateDrawerUnknownReason</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TVPPassthroughCouldNotCreateDrawer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TVPPassthroughDrawerNotSupportSmoothZoom</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TVPPassthroughDrawerNotSupportPointOnPointZoom</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TVPPassthroughBenchmarkResult</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TVPCouldNotCreateAnyDrawDevice</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TVPPassthroughUsingPassthroughDrawDevice</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TVPPassThroughDeviceDoesNotSupporteLayerManagerMoreThanOne</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TVPInvalidVideoSize</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3596,14 +3328,6 @@
   </si>
   <si>
     <t>オプション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cannot convert given narrow string to wide string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ANSI</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3954,10 +3678,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TVPErrorInvalidCall</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TVPSusiePluginUnsupportedBitmapHeader</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3990,6 +3710,535 @@
     <rPh sb="15" eb="17">
       <t>シヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列を UNICODE 文字列に変換できません。解釈できない文字が含まれてます。正しいデータが指定されているかを確認してください。データが破損している可能性もあります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrWrongTextureFormat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : テクスチャ サーフェイスのピクセル フォーマットが無効です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrUnsuportedColorOperation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : 色値に対して指定されているテクスチャ ブレンディング処理を、デバイスがサポートしていません</t>
+  </si>
+  <si>
+    <t>TVPD3dErrUnsuportedColorArg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : 色値に対して指定されているテクスチャ ブレンディング引数を、デバイスがサポートしていません</t>
+  </si>
+  <si>
+    <t>D3D : アルファ チャンネルに対して指定されているテクスチャ ブレンディング処理を、デバイスがサポートしていません</t>
+  </si>
+  <si>
+    <t>D3D : アルファ チャンネルに対して指定されているテクスチャ ブレンディング引数を、デバイスがサポートしていません</t>
+  </si>
+  <si>
+    <t>D3D : デバイスがサポートしている数より多くのテクスチャ フィルタリング処理を、アプリケーションが要求しています</t>
+  </si>
+  <si>
+    <t>D3D : 現在のテクスチャ フィルタは同時には使えません</t>
+  </si>
+  <si>
+    <t>D3D : デバイスが指定されたテクスチャ係数値をサポートしていません</t>
+  </si>
+  <si>
+    <t>D3D : 現在設定されているレンダリング ステートは同時には使えません</t>
+  </si>
+  <si>
+    <t>D3D : デバイスが指定されたテクスチャ フィルタをサポートしていません</t>
+  </si>
+  <si>
+    <t>D3D : 現在のテクスチャは同時には使えません</t>
+  </si>
+  <si>
+    <t>D3D : 要求された項目が見つかりませんでした</t>
+  </si>
+  <si>
+    <t>D3D : 指定されたバッファ サイズに保持できる以上のデータが存在します</t>
+  </si>
+  <si>
+    <t>D3D : デバイスは、消失していますが、現在リセットできます</t>
+  </si>
+  <si>
+    <t>D3D : このデバイスは、照会されたテクニックをサポートしていません</t>
+  </si>
+  <si>
+    <t>D3D : 要求されたデバイスの種類が無効です</t>
+  </si>
+  <si>
+    <t>D3D : 使用されません</t>
+  </si>
+  <si>
+    <t>D3D : このサーフェスとの間で情報を転送している以前のビット演算が不完全です</t>
+  </si>
+  <si>
+    <t>D3D : このコードを返したデバイスが原因で、ハードウェア アダプターが OS によってリセットされました</t>
+  </si>
+  <si>
+    <t>D3D : D3DERR_CANNOTPROTECTCONTENT</t>
+  </si>
+  <si>
+    <t>D3D : D3DERR_PRESENT_STATISTICS_DISJOINT</t>
+  </si>
+  <si>
+    <t>D3D : ハードウェア アダプターが削除されています</t>
+  </si>
+  <si>
+    <t>D3D : 成功しましたが、このフォーマットに対するミップマップの自動生成はサポートされていません</t>
+  </si>
+  <si>
+    <t>D3D : Direct3D サブシステム内で原因不明のエラーが発生しました</t>
+  </si>
+  <si>
+    <t>D3D : 無効なパラメータが関数に渡されました</t>
+  </si>
+  <si>
+    <t>TVPD3dErrUnsuportedAalphtOperation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrUnsuportedAlphaArg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrTooManyOperations</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrConflictioningTextureFilter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrUnsuportedFactorValue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrConflictioningRenderState</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrUnsupportedTextureFilter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrConflictioningTexturePalette</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrNotFound</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrMoreData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrDeviceNotReset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrNotAvailable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrInvalidDevice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrDriverInvalidCall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrWasStillDrawing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrDeviceHung</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrUnsupportedOverlay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrUnsupportedOverlayFormat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrCannotProtectContent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrUnsupportedCrypto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrPresentStatisticsDisJoint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrDeviceRemoved</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dOkNoAutoGen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dUnknownError</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : 不明なエラーが発生しました</t>
+    <rPh sb="6" eb="8">
+      <t>フメイ</t>
+    </rPh>
+    <rPh sb="13" eb="19">
+      <t>ハッ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrDeviceLost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : デバイスは消失しています。現在リセットできません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : メソッドの呼び出しが無効です。メソッドのパラメータが有効なポインタではない等の可能性があります。</t>
+    <rPh sb="43" eb="44">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : Direct3D が処理を行うのに十分なディスプレイ メモリがありません</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : Direct3D が呼び出しを完了するための十分なメモリを割り当てることができませんでした</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrDriverIinternalError</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : ドライバ内部でエラーが発生しました。アプリケーションをシャットダウンする必要があります。</t>
+    <rPh sb="17" eb="19">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrInvalidCall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrOutOfVideoMemory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrOutOfMemory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrFail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPD3dErrInvalidArg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : 指定された暗号化アルゴリズムをサポートしていません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : 指定されたサーフェス フォーマットのオーバーレイをデバイスがサポートしていません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : 指定されたサイズまたはディスプレイ モードのオーバーレイをデバイスがサポートしていません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : Unknown error.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The device has been lost but cannot be reset at this time.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">D3D : Internal driver error. Applications should destroy and recreate the device when receiving this error. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The method call is invalid. For example, a method's parameter may not be a valid pointer.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">D3D : Direct3D does not have enough display memory to perform the operation. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : Direct3D could not allocate sufficient memory to complete the call.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The pixel format of the texture surface is not valid.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The device does not support a specified texture-blending operation for color values.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The device does not support a specified texture-blending argument for color values.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The device does not support a specified texture-blending operation for the alpha channel.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The device does not support a specified texture-blending argument for the alpha channel.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The application is requesting more texture-filtering operations than the device supports.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The current texture filters cannot be used together.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The device does not support the specified texture factor value. Not used; provided only to support older drivers.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The currently set render states cannot be used together.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The device does not support the specified texture filter.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The current textures cannot be used simultaneously.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The requested item was not found.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : There is more data available than the specified buffer size can hold.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The device has been lost but can be reset at this time.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : This device does not support the queried technique.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The requested device type is not valid.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : Not used.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The previous blit operation that is transferring information to or from this surface is incomplete.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The device that returned this code caused the hardware adapter to be reset by the OS.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">D3D : The device does not support overlay for the specified size or display mode. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">D3D : The device does not support overlay for the specified surface format. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The specified content cannot be protected.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The specified cryptographic algorithm is not supported.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The present statistics have no orderly sequence.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : The hardware adapter has been removed.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : This is a success code. However, the autogeneration of mipmaps is not supported for this format.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : An undetermined error occurred inside the Direct3D subsystem.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D : An invalid parameter was passed to the returning function.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BasicDrawDevice: Direct3D Device の生成に失敗しました : %1</t>
+    <rPh sb="34" eb="36">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BasicDrawDevice: Failed to create Direct3D Device: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPBasicDrawDeviceFailedToCreateDirect3DDevice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BasicDrawDevice: Direct3D Device の生成に失敗しました : 不明な理由</t>
+    <rPh sb="34" eb="36">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>フメイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BasicDrawDevice: Failed to create Direct3D Device: unknown reason</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPBasicDrawDeviceFailedToCreateDirect3DDeviceUnknownReason</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\"Basic Draw\" デバイスでは２つ以上のLayer Managerを登録できない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\"basic draw\" device does not support layer manager more than 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPBasicDrawDeviceDoesNotSupporteLayerManagerMoreThanOne</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPBasicDrawDeviceFailedToCreateDirect3DDevices</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPBasicDrawDeviceFailedToCreateDirect3DDevicesUnknownReason</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BasicDrawDevice: Failed to create Direct3D devices: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BasicDrawDevice: Failed to create Direct3D devices: unknown reason</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPBasicDrawDeviceInfDirect3DDevicePresentFailed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BasicDrawDevice: (inf) IDirect3DDevice::Present failed/HR=%1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPBasicDrawDeviceTextureHasAlreadyBeenLocked</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BasicDrawDevice: テクスチャーは既にロックされています (EndBitmapCompletion() を呼ばずに StartBitmapCompletion() を2回呼び出しています), アンロックしてください.</t>
+    <rPh sb="24" eb="25">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BasicDrawDevice: Texture has already been locked (StartBitmapCompletion() has been called twice without EndBitmapCompletion()), unlocking the texture.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPBasicDrawDeviceInfPolygonDrawingFailed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BasicDrawDevice: (inf) ポリゴン描画に失敗しました/HR=%1</t>
+    <rPh sb="27" eb="29">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BasicDrawDevice: (inf) Polygon drawing failed/HR=%1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4358,10 +4607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4377,13 +4626,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>939</v>
+        <v>888</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4394,7 +4643,7 @@
         <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -4405,7 +4654,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -4416,7 +4665,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -4424,508 +4673,508 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>980</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>941</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -4933,24 +5182,24 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>942</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -4958,46 +5207,46 @@
         <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>942</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
@@ -5005,35 +5254,35 @@
         <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>942</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
@@ -5041,98 +5290,95 @@
         <v>55</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>942</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>59</v>
+        <v>669</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>701</v>
+        <v>670</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>702</v>
+        <v>671</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>189</v>
@@ -5140,79 +5386,68 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>705</v>
+        <v>674</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>706</v>
+        <v>675</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>707</v>
+        <v>676</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>708</v>
+        <v>677</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>709</v>
+        <v>953</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -5226,7 +5461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5244,1702 +5479,1702 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>732</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>937</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>730</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>731</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>946</v>
+        <v>893</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>947</v>
+        <v>894</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>948</v>
+        <v>895</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>949</v>
+        <v>896</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>950</v>
+        <v>897</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>951</v>
+        <v>898</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>952</v>
+        <v>899</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>953</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>954</v>
+        <v>901</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>955</v>
+        <v>902</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>956</v>
+        <v>903</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>957</v>
+        <v>904</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>958</v>
+        <v>905</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>959</v>
+        <v>906</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>960</v>
+        <v>907</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>961</v>
+        <v>908</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>962</v>
+        <v>909</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>963</v>
+        <v>910</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>964</v>
+        <v>911</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>965</v>
+        <v>912</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>966</v>
+        <v>913</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>967</v>
+        <v>914</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>968</v>
+        <v>915</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>969</v>
+        <v>916</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>970</v>
+        <v>917</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>971</v>
+        <v>918</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>972</v>
+        <v>919</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>973</v>
+        <v>920</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>974</v>
+        <v>921</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>975</v>
+        <v>922</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>938</v>
+        <v>887</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>726</v>
+        <v>694</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>727</v>
+        <v>695</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>728</v>
+        <v>696</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>729</v>
+        <v>697</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>976</v>
+        <v>923</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>977</v>
+        <v>924</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>978</v>
+        <v>925</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>979</v>
+        <v>926</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>980</v>
+        <v>927</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>981</v>
+        <v>928</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>982</v>
+        <v>929</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>983</v>
+        <v>930</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>984</v>
+        <v>931</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>985</v>
+        <v>932</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>986</v>
+        <v>933</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>987</v>
+        <v>934</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>988</v>
+        <v>935</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>989</v>
+        <v>936</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>990</v>
+        <v>937</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>991</v>
+        <v>938</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>992</v>
+        <v>939</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>993</v>
+        <v>940</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>994</v>
+        <v>941</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>995</v>
+        <v>942</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>996</v>
+        <v>943</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>997</v>
+        <v>944</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>998</v>
+        <v>945</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>999</v>
+        <v>946</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1001</v>
+        <v>948</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1000</v>
+        <v>947</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1002</v>
+        <v>949</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1003</v>
+        <v>950</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1004</v>
+        <v>951</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1005</v>
+        <v>952</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1007</v>
+        <v>954</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1008</v>
+        <v>955</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1009</v>
+        <v>956</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1010</v>
+        <v>957</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1011</v>
+        <v>958</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1012</v>
+        <v>959</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1013</v>
+        <v>960</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1014</v>
+        <v>961</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1015</v>
+        <v>962</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1016</v>
+        <v>963</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1017</v>
+        <v>964</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1018</v>
+        <v>965</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1019</v>
+        <v>966</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1020</v>
+        <v>967</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1021</v>
+        <v>968</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1022</v>
+        <v>969</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1023</v>
+        <v>970</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1024</v>
+        <v>971</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>757</v>
+        <v>725</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>756</v>
+        <v>724</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1025</v>
+        <v>972</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>710</v>
+        <v>678</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1026</v>
+        <v>973</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>718</v>
+        <v>686</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>673</v>
+        <v>648</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>719</v>
+        <v>687</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>713</v>
+        <v>681</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>672</v>
+        <v>647</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>721</v>
+        <v>689</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>714</v>
+        <v>682</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>715</v>
+        <v>683</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>717</v>
+        <v>685</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>716</v>
+        <v>684</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>722</v>
+        <v>690</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>723</v>
+        <v>691</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>724</v>
+        <v>692</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>725</v>
+        <v>693</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>758</v>
+        <v>726</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>759</v>
+        <v>727</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>760</v>
+        <v>728</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>755</v>
+        <v>723</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>761</v>
+        <v>729</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>762</v>
+        <v>730</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>763</v>
+        <v>731</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>764</v>
+        <v>732</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>765</v>
+        <v>733</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>766</v>
+        <v>734</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>747</v>
+        <v>715</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>768</v>
+        <v>736</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>748</v>
+        <v>716</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>769</v>
+        <v>737</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>770</v>
+        <v>738</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>771</v>
+        <v>739</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>749</v>
+        <v>717</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>772</v>
+        <v>740</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>750</v>
+        <v>718</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>773</v>
+        <v>741</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>751</v>
+        <v>719</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>774</v>
+        <v>742</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>746</v>
+        <v>714</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>775</v>
+        <v>743</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>752</v>
+        <v>720</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>753</v>
+        <v>721</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>777</v>
+        <v>745</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>778</v>
+        <v>746</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>754</v>
+        <v>722</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>779</v>
+        <v>747</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>781</v>
+        <v>749</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>782</v>
+        <v>750</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>783</v>
+        <v>751</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>784</v>
+        <v>752</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>745</v>
+        <v>713</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>785</v>
+        <v>753</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>744</v>
+        <v>712</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>743</v>
+        <v>711</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>787</v>
+        <v>755</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>742</v>
+        <v>710</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>788</v>
+        <v>756</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>789</v>
+        <v>757</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>790</v>
+        <v>758</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>791</v>
+        <v>759</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>792</v>
+        <v>760</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>740</v>
+        <v>708</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>793</v>
+        <v>761</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>741</v>
+        <v>709</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>794</v>
+        <v>762</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>739</v>
+        <v>707</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>795</v>
+        <v>763</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>738</v>
+        <v>706</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>796</v>
+        <v>764</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>737</v>
+        <v>705</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>797</v>
+        <v>765</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>736</v>
+        <v>704</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>798</v>
+        <v>766</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>799</v>
+        <v>767</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>734</v>
+        <v>702</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>800</v>
+        <v>768</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -6951,10 +7186,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6971,1611 +7206,1853 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>887</v>
+        <v>836</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>888</v>
+        <v>837</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>889</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>890</v>
+        <v>839</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>891</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>892</v>
+        <v>841</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>893</v>
+        <v>842</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>894</v>
+        <v>843</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>895</v>
+        <v>844</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>896</v>
+        <v>845</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>897</v>
+        <v>846</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>898</v>
+        <v>847</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>899</v>
+        <v>848</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>900</v>
+        <v>849</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>901</v>
+        <v>850</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>902</v>
+        <v>851</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>903</v>
+        <v>852</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>904</v>
+        <v>853</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>905</v>
+        <v>854</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>906</v>
+        <v>855</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>907</v>
+        <v>856</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>908</v>
+        <v>857</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>909</v>
+        <v>858</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>910</v>
+        <v>859</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>911</v>
+        <v>860</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>912</v>
+        <v>861</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>913</v>
+        <v>862</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>914</v>
+        <v>863</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>915</v>
+        <v>864</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>916</v>
+        <v>865</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>917</v>
+        <v>866</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>918</v>
+        <v>867</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>919</v>
+        <v>868</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>920</v>
+        <v>869</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>921</v>
+        <v>870</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>922</v>
+        <v>871</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>923</v>
+        <v>872</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>924</v>
+        <v>873</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>925</v>
+        <v>874</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>926</v>
+        <v>875</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>927</v>
+        <v>876</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>928</v>
+        <v>877</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>929</v>
+        <v>878</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>930</v>
+        <v>879</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>801</v>
+        <v>769</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>802</v>
+        <v>770</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>814</v>
+        <v>781</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>803</v>
+        <v>771</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>818</v>
+        <v>782</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>804</v>
+        <v>772</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>823</v>
+        <v>787</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>820</v>
+        <v>784</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>824</v>
+        <v>788</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>825</v>
+        <v>789</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>821</v>
+        <v>785</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>826</v>
+        <v>790</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>827</v>
+        <v>791</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>828</v>
+        <v>792</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>829</v>
+        <v>793</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>666</v>
+        <v>641</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>830</v>
+        <v>794</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>663</v>
+        <v>638</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>1031</v>
+        <v>977</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1032</v>
+        <v>978</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>831</v>
+        <v>795</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>832</v>
+        <v>796</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1030</v>
+        <v>976</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>833</v>
+        <v>797</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>662</v>
+        <v>637</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1027</v>
+        <v>974</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>695</v>
+        <v>663</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>931</v>
+        <v>880</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>697</v>
+        <v>665</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>932</v>
+        <v>881</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>696</v>
+        <v>664</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>933</v>
+        <v>882</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>698</v>
+        <v>666</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>934</v>
+        <v>883</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>699</v>
+        <v>667</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>935</v>
+        <v>884</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>936</v>
+        <v>885</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>834</v>
+        <v>798</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>835</v>
+        <v>799</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>836</v>
+        <v>800</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>837</v>
+        <v>801</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>694</v>
+        <v>662</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>822</v>
+        <v>786</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>838</v>
+        <v>802</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>839</v>
+        <v>803</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>806</v>
+        <v>774</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>807</v>
+        <v>775</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>840</v>
+        <v>804</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>651</v>
+        <v>628</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>808</v>
+        <v>776</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>841</v>
+        <v>805</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>809</v>
+        <v>777</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>810</v>
+        <v>778</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>811</v>
+        <v>779</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>812</v>
+        <v>780</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1033</v>
+        <v>979</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>842</v>
+        <v>806</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>843</v>
+        <v>1092</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>579</v>
+        <v>1094</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>579</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>844</v>
+        <v>1093</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>580</v>
+        <v>1095</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>580</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>845</v>
+        <v>1098</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>581</v>
+        <v>1099</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>581</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>846</v>
+        <v>807</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>813</v>
+        <v>1101</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>583</v>
+        <v>1102</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>583</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>815</v>
+        <v>1096</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>584</v>
+        <v>1097</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>584</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>1028</v>
+        <v>808</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>847</v>
+        <v>809</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>848</v>
+        <v>812</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>849</v>
+        <v>813</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>851</v>
+        <v>814</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>591</v>
+        <v>655</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>852</v>
+        <v>815</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>850</v>
+        <v>816</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>853</v>
+        <v>817</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>854</v>
+        <v>818</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>595</v>
+        <v>653</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>855</v>
+        <v>975</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>687</v>
+        <v>654</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>856</v>
+        <v>1085</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>600</v>
+        <v>1083</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>597</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>857</v>
+        <v>1088</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>601</v>
+        <v>1086</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>598</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>858</v>
+        <v>819</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>602</v>
+        <v>636</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>859</v>
+        <v>1091</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>685</v>
+        <v>1089</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>603</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>1029</v>
+        <v>820</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>686</v>
+        <v>595</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>860</v>
+        <v>821</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>683</v>
+        <v>635</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>861</v>
+        <v>822</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>682</v>
+        <v>634</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>862</v>
+        <v>823</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>681</v>
+        <v>633</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>863</v>
+        <v>824</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>680</v>
+        <v>632</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>608</v>
+        <v>476</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>864</v>
+        <v>825</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>679</v>
+        <v>631</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>865</v>
+        <v>826</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>678</v>
+        <v>630</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>866</v>
+        <v>827</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>677</v>
+        <v>629</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>867</v>
+        <v>828</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>661</v>
+        <v>627</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>868</v>
+        <v>829</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>660</v>
+        <v>626</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>869</v>
+        <v>830</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>659</v>
+        <v>625</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>870</v>
+        <v>831</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>871</v>
+        <v>832</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>872</v>
+        <v>833</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>873</v>
+        <v>834</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>657</v>
+        <v>621</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>874</v>
+        <v>835</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>656</v>
+        <v>620</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>875</v>
+        <v>660</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>655</v>
+        <v>619</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>478</v>
+        <v>610</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>876</v>
+        <v>659</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>654</v>
+        <v>618</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>877</v>
+        <v>658</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>653</v>
+        <v>617</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>878</v>
+        <v>657</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>652</v>
+        <v>616</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>879</v>
+        <v>656</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>650</v>
+        <v>615</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>649</v>
+        <v>891</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>626</v>
+        <v>892</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>881</v>
+        <v>1034</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>648</v>
+        <v>1035</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>627</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>882</v>
+        <v>1039</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>647</v>
+        <v>1040</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>628</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>883</v>
+        <v>1041</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>646</v>
+        <v>1036</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>629</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>884</v>
+        <v>1042</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>645</v>
+        <v>1037</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>630</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>885</v>
+        <v>1043</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>644</v>
+        <v>1038</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>631</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>886</v>
+        <v>981</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>643</v>
+        <v>982</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>632</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>692</v>
+        <v>983</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>642</v>
+        <v>984</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>633</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>691</v>
+        <v>985</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>641</v>
+        <v>986</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>634</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>690</v>
+        <v>1009</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>640</v>
+        <v>987</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>635</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>689</v>
+        <v>1010</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>639</v>
+        <v>988</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>636</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>688</v>
+        <v>1011</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>638</v>
+        <v>989</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>637</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>943</v>
+        <v>1012</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>944</v>
+        <v>990</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>945</v>
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A150" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A151" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A152" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A153" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A154" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A155" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A156" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A157" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A158" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A159" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A160" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A161" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A162" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A163" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A164" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A165" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A166" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A167" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A168" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>1049</v>
       </c>
     </row>
   </sheetData>

--- a/msg/text/Messages.xlsx
+++ b/msg/text/Messages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1173">
   <si>
     <t>TJSInternalError</t>
   </si>
@@ -4239,6 +4239,329 @@
   </si>
   <si>
     <t>BasicDrawDevice: (inf) Polygon drawing failed/HR=%1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Guard Page: The thread accessed memory allocated with the PAGE_GUARD modifier.</t>
+  </si>
+  <si>
+    <t>Illegal Instruction: The thread tries to execute an invalid instruction.</t>
+  </si>
+  <si>
+    <t>In Page Error: The thread tries to access a page that is not present, and the system is unable to load the page. For example, this exception might occur if a network connection is lost while running a program over a network.</t>
+  </si>
+  <si>
+    <t>Invalid Disposition: An exception handler returns an invalid disposition to the exception dispatcher. Programmers using a high-level language such as C should never encounter this exception.</t>
+  </si>
+  <si>
+    <t>Invalid Handle: The thread used a handle to a kernel object that was invalid (probably because it had been closed.)</t>
+  </si>
+  <si>
+    <t>Stack Overflow: The thread uses up its stack.</t>
+  </si>
+  <si>
+    <t>Unwind Consolidate: A frame consolidation has been executed.</t>
+  </si>
+  <si>
+    <t>Access Violation: スレッドが適切なアクセス権を持たない仮想アドレスに対して、読み取りまたは書き込みを試みました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Access Violation: The thread attempts to read from or write to a virtual address for which it does not have access.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Break Point: ブレークポイントに到達しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Break Point: A breakpoint is encountered.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data Type Misalignment: 境界整列をサポートしないハードウェア上で、スレッドが境界に整列していないデータの読み取りまたは書き込みを試みました。たとえば、16 ビットの値は 2 バイトの境界線上に、32 ビットの値は 4 バイトの境界線上に整列していなければなりません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data Type Misalignment: The thread attempts to read or write data that is misaligned on hardware that does not provide alignment. For example, 16-bit values must be aligned on 2-byte boundaries, 32-bit values on 4-byte boundaries, and so on.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Single Step: トレーストラップなどの単一命令メカニズムから 1 つの命令の実行が通知されました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Single Step: A trace trap or other single instruction mechanism signals that one instruction is executed.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Array Bounds Exceede: スレッドが範囲外の配列要素にアクセスしようとしました。使用中のハードウェアは境界チェックをサポートしています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Array Bounds Exceede: The thread attempts to access an array element that is out of bounds, and the underlying hardware supports bounds checking.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Denormal Operand: 浮動小数点演算のオペランドの 1 つが不正規化値です。不正規化値とは、小さすぎて標準の浮動小数点値として表現できない値です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Denormal Operand: One of the operands in a floating point operation is denormal. A denormal value is one that is too small to represent as a standard floating point value.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Divide By Zero: スレッドが浮動小数点値を 0 の浮動小数点除数で除算しようとしました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Divide By Zero: The thread attempts to divide a floating point value by a floating point divisor of 0 (zero).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Inexact Result: 浮動小数点演算の結果を 10 進小数で正確に表現できません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Inexact Result: The result of a floating point operation cannot be represented exactly as a decimal fraction.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid Operation: このリストに含まれていない例外が発生しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid Operation: A floating point exception that is not included in this list.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Overflow: 浮動小数点演算の指数が大きく、対応する型によって表現できません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Overflow: The exponent of a floating point operation is greater than the magnitude allowed by the corresponding type.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stack Check: 浮動小数点演算の結果、スタックのオーバーフローまたはアンダーフローが発生しました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stack Check: The stack has overflowed or underflowed, because of a floating point operation.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Underflow: 浮動小数点演算の指数が小さく、対応する型によって表現できません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Underflow: The exponent of a floating point operation is less than the magnitude allowed by the corresponding type.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Divide By Zero: スレッドが整数値を 0 の整数除数で除算しようとしました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Divide By Zero: The thread attempts to divide an integer value by an integer divisor of 0 (zero).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Overflow: 整数演算結果の最上位ビットが繰り上がりました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Overflow: The result of an integer operation creates a value that is too large to be held by the destination register. In some cases, this will result in a carry out of the most significant bit of the result. Some operations do not set the carry flag.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Priv Instruction: 現在のマシンモードで許可されていない演算を行う命令をスレッドが実行しようとしました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Priv Instruction: The thread attempts to execute an instruction with an operation that is not allowed in the current computer mode.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Noncontinuable Exception: 継続不可能な例外が発生した後、スレッドが実行を継続しようとしました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Noncontinuable Exception: The thread attempts to continue execution after a non-continuable exception occurs.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Guard Page: PAGE_GUARD で保護されたメモリにアクセスしました。</t>
+    <rPh sb="24" eb="26">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Illegal Instruction: 無効な命令を実行しようとしました。</t>
+    <rPh sb="21" eb="23">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">In Page Error: 存在しないページへアクセスしようとしました、またシステムはページをロードできません。 </t>
+    <rPh sb="15" eb="17">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid Disposition: 例外ハンドラは無効な配置をディスパッチャに返しました。C言語のような高水準言語では発生しません。</t>
+    <rPh sb="21" eb="23">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="55" eb="60">
+      <t>コウスイジュンゲンゴ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid Handle: 無効な(おそらく既に閉じられている)カーネルオブジェクトのハンドルを使用しました。</t>
+    <rPh sb="16" eb="18">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stack Overflow: スタックを使い果たしました。</t>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unwind Consolidate: フレーム結合が実行されました。</t>
+    <rPh sb="24" eb="26">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionAccessViolation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionBreakpoint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionDatatypeMisalignment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionSingleStep</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionArrayBoundsExceeded</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionFltDenormalOperand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionFltDivideByZero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionFltInexactResult</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionFltInvalidOperation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionFltOverflow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionFltStackCheck</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionFltUnderflow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionIntDivideByZero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionIntOverflow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionPrivInstruction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionNoncontinuableException</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionGuardPage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionIllegalInstruction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionInPageError</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionInvalidDisposition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionInvalidHandle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionStackOverflow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPExceptionUnwindCconsolidate</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7186,10 +7509,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -9055,6 +9378,259 @@
         <v>1049</v>
       </c>
     </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A169" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A170" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A171" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A172" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A173" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A174" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A175" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A176" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A177" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A178" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A179" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A180" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A181" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A182" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A183" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A184" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A185" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A186" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A187" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A188" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A189" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A190" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A191" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/msg/text/Messages.xlsx
+++ b/msg/text/Messages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TJS2" sheetId="1" r:id="rId1"/>
@@ -967,10 +967,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://kirikiri.jp/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>内部エラーが発生しました: at %1 line %2</t>
   </si>
   <si>
@@ -4562,6 +4558,10 @@
   </si>
   <si>
     <t>TVPExceptionUnwindCconsolidate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://krkrz.github.io/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4569,7 +4569,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4593,6 +4593,29 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4611,12 +4634,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4626,8 +4652,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4955,7 +4988,7 @@
         <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4996,7 +5029,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>127</v>
@@ -5497,7 +5530,7 @@
         <v>172</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -5522,7 +5555,7 @@
         <v>173</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -5569,7 +5602,7 @@
         <v>176</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
@@ -5605,7 +5638,7 @@
         <v>178</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
@@ -5665,7 +5698,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>186</v>
@@ -5676,7 +5709,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>185</v>
@@ -5687,7 +5720,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>188</v>
@@ -5698,7 +5731,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>200</v>
@@ -5709,7 +5742,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>201</v>
@@ -5720,7 +5753,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>202</v>
@@ -5731,7 +5764,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>194</v>
@@ -5742,7 +5775,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>193</v>
@@ -5753,7 +5786,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>198</v>
@@ -5764,7 +5797,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>199</v>
@@ -5784,8 +5817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -5816,7 +5849,7 @@
         <v>292</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -5827,18 +5860,18 @@
         <v>293</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>294</v>
+      <c r="B4" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -5846,10 +5879,10 @@
         <v>205</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -5857,10 +5890,10 @@
         <v>206</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -5868,10 +5901,10 @@
         <v>207</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -5879,10 +5912,10 @@
         <v>208</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -5890,10 +5923,10 @@
         <v>209</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -5901,10 +5934,10 @@
         <v>210</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -5912,10 +5945,10 @@
         <v>211</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -5923,10 +5956,10 @@
         <v>212</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -5934,10 +5967,10 @@
         <v>213</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -5945,10 +5978,10 @@
         <v>214</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -5956,10 +5989,10 @@
         <v>215</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -5967,10 +6000,10 @@
         <v>216</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -5978,10 +6011,10 @@
         <v>217</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -5989,10 +6022,10 @@
         <v>218</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -6000,10 +6033,10 @@
         <v>219</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -6011,10 +6044,10 @@
         <v>220</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -6022,10 +6055,10 @@
         <v>221</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -6033,10 +6066,10 @@
         <v>222</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -6044,10 +6077,10 @@
         <v>223</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -6055,10 +6088,10 @@
         <v>224</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -6066,10 +6099,10 @@
         <v>225</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -6077,10 +6110,10 @@
         <v>226</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -6088,10 +6121,10 @@
         <v>227</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -6099,10 +6132,10 @@
         <v>228</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -6110,10 +6143,10 @@
         <v>229</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -6121,10 +6154,10 @@
         <v>230</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -6132,10 +6165,10 @@
         <v>231</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -6143,10 +6176,10 @@
         <v>232</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -6154,10 +6187,10 @@
         <v>233</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -6165,10 +6198,10 @@
         <v>234</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -6176,10 +6209,10 @@
         <v>235</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -6187,10 +6220,10 @@
         <v>236</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -6198,10 +6231,10 @@
         <v>237</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -6209,10 +6242,10 @@
         <v>259</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -6220,10 +6253,10 @@
         <v>260</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -6231,10 +6264,10 @@
         <v>261</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -6242,10 +6275,10 @@
         <v>262</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -6253,10 +6286,10 @@
         <v>238</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -6264,10 +6297,10 @@
         <v>263</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -6275,10 +6308,10 @@
         <v>264</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -6286,10 +6319,10 @@
         <v>239</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -6297,10 +6330,10 @@
         <v>240</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -6308,10 +6341,10 @@
         <v>241</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -6319,10 +6352,10 @@
         <v>242</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -6330,10 +6363,10 @@
         <v>243</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -6341,10 +6374,10 @@
         <v>244</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -6352,10 +6385,10 @@
         <v>245</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -6363,10 +6396,10 @@
         <v>246</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -6374,10 +6407,10 @@
         <v>247</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -6385,10 +6418,10 @@
         <v>248</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -6396,10 +6429,10 @@
         <v>249</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -6407,10 +6440,10 @@
         <v>250</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -6418,10 +6451,10 @@
         <v>251</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -6429,10 +6462,10 @@
         <v>252</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -6440,10 +6473,10 @@
         <v>253</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -6451,10 +6484,10 @@
         <v>254</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -6462,10 +6495,10 @@
         <v>255</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -6473,10 +6506,10 @@
         <v>256</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -6484,10 +6517,10 @@
         <v>257</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -6495,10 +6528,10 @@
         <v>258</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -6506,10 +6539,10 @@
         <v>265</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -6517,10 +6550,10 @@
         <v>266</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -6528,10 +6561,10 @@
         <v>267</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -6539,10 +6572,10 @@
         <v>268</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -6550,10 +6583,10 @@
         <v>269</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -6561,10 +6594,10 @@
         <v>270</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -6572,10 +6605,10 @@
         <v>271</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -6583,10 +6616,10 @@
         <v>272</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -6594,10 +6627,10 @@
         <v>273</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -6605,10 +6638,10 @@
         <v>274</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -6616,10 +6649,10 @@
         <v>275</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -6627,10 +6660,10 @@
         <v>276</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -6638,10 +6671,10 @@
         <v>277</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -6649,10 +6682,10 @@
         <v>278</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -6660,10 +6693,10 @@
         <v>279</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -6671,10 +6704,10 @@
         <v>280</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
@@ -6682,10 +6715,10 @@
         <v>281</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
@@ -6693,10 +6726,10 @@
         <v>282</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
@@ -6704,10 +6737,10 @@
         <v>283</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
@@ -6715,10 +6748,10 @@
         <v>284</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
@@ -6726,10 +6759,10 @@
         <v>285</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
@@ -6737,10 +6770,10 @@
         <v>286</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
@@ -6748,10 +6781,10 @@
         <v>287</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
@@ -6759,10 +6792,10 @@
         <v>288</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
@@ -6770,21 +6803,21 @@
         <v>289</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
@@ -6792,718 +6825,722 @@
         <v>290</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7511,9 +7548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
-    </sheetView>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7537,2098 +7572,2098 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>978</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>1102</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>1097</v>
-      </c>
       <c r="C96" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>1083</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>1089</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>1035</v>
-      </c>
       <c r="C135" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>1040</v>
-      </c>
       <c r="C136" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>982</v>
-      </c>
       <c r="C140" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>984</v>
-      </c>
       <c r="C141" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>986</v>
-      </c>
       <c r="C142" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>1033</v>
-      </c>
       <c r="C168" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>1113</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>1115</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>1117</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>1131</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>1133</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>1137</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>

--- a/msg/text/Messages.xlsx
+++ b/msg/text/Messages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TJS2" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="1179">
   <si>
     <t>TJSInternalError</t>
   </si>
@@ -4562,6 +4562,57 @@
   </si>
   <si>
     <t>http://krkrz.github.io/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPCannotShowModalAreadyShowed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot Show Modal.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既に表示、もしくは無効になっているウィンドウをモーダル表示することは出来ません。</t>
+    <rPh sb="0" eb="1">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot Show Modal. When it is single window.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドウが1個の時モーダル表示することは出来ません。</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="20">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPCannotShowModalSingleWindow</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5817,8 +5868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7546,9 +7597,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9666,6 +9719,28 @@
         <v>1109</v>
       </c>
     </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A192" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A193" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>1176</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/msg/text/Messages.xlsx
+++ b/msg/text/Messages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TJS2" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="1185">
   <si>
     <t>TJSInternalError</t>
   </si>
@@ -4613,6 +4613,39 @@
   </si>
   <si>
     <t>TVPCannotShowModalSingleWindow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPSpecifyLayerOrBitmap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layer クラスか Bitmap クラスのオブジェクトを指定してください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Specify Layer or Bitmap class object</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPCannotAcceptModeAuto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot accept omAuto mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この操作で mode に omAuto を指定することは出来ません</t>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>デキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5866,10 +5899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6389,547 +6422,541 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>241</v>
+        <v>1179</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>336</v>
+        <v>1180</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>927</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>242</v>
+        <v>1182</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>337</v>
+        <v>1184</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>928</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>724</v>
+        <v>288</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>723</v>
+        <v>377</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>379</v>
+        <v>970</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>677</v>
+        <v>724</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>649</v>
+        <v>723</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>685</v>
+        <v>290</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>647</v>
+        <v>380</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>482</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>482</v>
+        <v>972</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>482</v>
@@ -6937,13 +6964,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>482</v>
@@ -6951,13 +6978,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>482</v>
@@ -6965,13 +6992,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>482</v>
@@ -6979,13 +7006,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>481</v>
+        <v>645</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>482</v>
@@ -6993,13 +7020,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>472</v>
+        <v>646</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>482</v>
@@ -7007,13 +7034,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>482</v>
@@ -7021,13 +7048,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>482</v>
@@ -7035,13 +7062,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>482</v>
@@ -7049,13 +7076,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>650</v>
+        <v>479</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>482</v>
@@ -7063,13 +7090,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>482</v>
@@ -7077,510 +7104,538 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>531</v>
+        <v>691</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>532</v>
+        <v>483</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>725</v>
+        <v>692</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>726</v>
+        <v>531</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>651</v>
+        <v>487</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>489</v>
+        <v>532</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>722</v>
+        <v>488</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>491</v>
+        <v>651</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>492</v>
+        <v>722</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>714</v>
+        <v>495</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>715</v>
+        <v>496</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>499</v>
+        <v>714</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>500</v>
+        <v>715</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>716</v>
+        <v>499</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>717</v>
+        <v>500</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>507</v>
+        <v>719</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>510</v>
+        <v>721</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>712</v>
+        <v>512</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>711</v>
+        <v>513</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>518</v>
+        <v>710</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>519</v>
+        <v>709</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>707</v>
+        <v>520</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>708</v>
+        <v>521</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A152" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A153" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>530</v>
       </c>
     </row>
@@ -7599,7 +7654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>

--- a/msg/text/Messages.xlsx
+++ b/msg/text/Messages.xlsx
@@ -1567,9 +1567,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ＭＳ Ｐゴシック</t>
-  </si>
-  <si>
     <t>Can't open font file '%1$s'</t>
   </si>
   <si>
@@ -1700,10 +1697,6 @@
   </si>
   <si>
     <t>TVPDefaultFontName</t>
-  </si>
-  <si>
-    <t>MS Sans Serif</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>(info) Listing files in %1 …</t>
@@ -4646,6 +4639,14 @@
     <rPh sb="28" eb="30">
       <t>デキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEFAULT_GUI_FONT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＭＳ Ｐゴシック</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4726,7 +4727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4741,6 +4742,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5072,7 +5076,7 @@
         <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5113,7 +5117,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>127</v>
@@ -5614,7 +5618,7 @@
         <v>172</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -5639,7 +5643,7 @@
         <v>173</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -5686,7 +5690,7 @@
         <v>176</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
@@ -5722,7 +5726,7 @@
         <v>178</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
@@ -5782,7 +5786,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>186</v>
@@ -5793,7 +5797,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>185</v>
@@ -5804,7 +5808,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>188</v>
@@ -5815,7 +5819,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>200</v>
@@ -5826,7 +5830,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>201</v>
@@ -5837,7 +5841,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>202</v>
@@ -5848,7 +5852,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>194</v>
@@ -5859,7 +5863,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>193</v>
@@ -5870,7 +5874,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>198</v>
@@ -5881,7 +5885,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>199</v>
@@ -5901,8 +5905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -5933,7 +5937,7 @@
         <v>292</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -5944,7 +5948,7 @@
         <v>293</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -5952,10 +5956,10 @@
         <v>204</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -5966,7 +5970,7 @@
         <v>294</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -5977,7 +5981,7 @@
         <v>295</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -5988,7 +5992,7 @@
         <v>298</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -5999,7 +6003,7 @@
         <v>296</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -6010,7 +6014,7 @@
         <v>297</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -6021,7 +6025,7 @@
         <v>299</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -6032,7 +6036,7 @@
         <v>300</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -6043,7 +6047,7 @@
         <v>301</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -6054,7 +6058,7 @@
         <v>302</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -6065,7 +6069,7 @@
         <v>303</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -6076,7 +6080,7 @@
         <v>304</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -6087,7 +6091,7 @@
         <v>305</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -6098,7 +6102,7 @@
         <v>306</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -6109,7 +6113,7 @@
         <v>307</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -6120,7 +6124,7 @@
         <v>308</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -6131,7 +6135,7 @@
         <v>309</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -6142,7 +6146,7 @@
         <v>310</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -6153,7 +6157,7 @@
         <v>311</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -6164,7 +6168,7 @@
         <v>312</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -6175,7 +6179,7 @@
         <v>313</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -6186,7 +6190,7 @@
         <v>314</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -6197,7 +6201,7 @@
         <v>315</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -6208,7 +6212,7 @@
         <v>316</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -6219,7 +6223,7 @@
         <v>317</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -6230,7 +6234,7 @@
         <v>318</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -6241,7 +6245,7 @@
         <v>319</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -6252,7 +6256,7 @@
         <v>320</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -6263,7 +6267,7 @@
         <v>321</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -6274,7 +6278,7 @@
         <v>322</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -6285,7 +6289,7 @@
         <v>323</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -6296,7 +6300,7 @@
         <v>324</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -6307,7 +6311,7 @@
         <v>325</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -6318,7 +6322,7 @@
         <v>326</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -6329,7 +6333,7 @@
         <v>327</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -6340,7 +6344,7 @@
         <v>328</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -6351,7 +6355,7 @@
         <v>329</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -6362,7 +6366,7 @@
         <v>330</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -6373,7 +6377,7 @@
         <v>331</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -6384,7 +6388,7 @@
         <v>332</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -6395,7 +6399,7 @@
         <v>333</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -6406,7 +6410,7 @@
         <v>334</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -6417,29 +6421,29 @@
         <v>335</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>1179</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>1184</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -6450,7 +6454,7 @@
         <v>336</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -6461,7 +6465,7 @@
         <v>337</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -6472,7 +6476,7 @@
         <v>338</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -6483,7 +6487,7 @@
         <v>339</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -6494,7 +6498,7 @@
         <v>340</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -6505,7 +6509,7 @@
         <v>341</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -6516,7 +6520,7 @@
         <v>342</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -6527,7 +6531,7 @@
         <v>343</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -6538,7 +6542,7 @@
         <v>344</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -6549,7 +6553,7 @@
         <v>345</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -6560,7 +6564,7 @@
         <v>346</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -6571,7 +6575,7 @@
         <v>347</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -6582,7 +6586,7 @@
         <v>348</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -6593,7 +6597,7 @@
         <v>349</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -6604,7 +6608,7 @@
         <v>350</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -6615,7 +6619,7 @@
         <v>351</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -6626,7 +6630,7 @@
         <v>352</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -6637,7 +6641,7 @@
         <v>353</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -6648,7 +6652,7 @@
         <v>354</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -6659,7 +6663,7 @@
         <v>355</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -6670,7 +6674,7 @@
         <v>356</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -6681,7 +6685,7 @@
         <v>357</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -6692,7 +6696,7 @@
         <v>358</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -6703,7 +6707,7 @@
         <v>359</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -6714,7 +6718,7 @@
         <v>360</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -6725,7 +6729,7 @@
         <v>361</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -6736,7 +6740,7 @@
         <v>362</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -6747,7 +6751,7 @@
         <v>363</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -6758,7 +6762,7 @@
         <v>364</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -6769,7 +6773,7 @@
         <v>365</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -6780,7 +6784,7 @@
         <v>366</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -6791,7 +6795,7 @@
         <v>367</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
@@ -6802,7 +6806,7 @@
         <v>368</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
@@ -6813,7 +6817,7 @@
         <v>369</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
@@ -6824,7 +6828,7 @@
         <v>370</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
@@ -6835,7 +6839,7 @@
         <v>371</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
@@ -6846,7 +6850,7 @@
         <v>372</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
@@ -6857,7 +6861,7 @@
         <v>373</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
@@ -6868,7 +6872,7 @@
         <v>374</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
@@ -6879,7 +6883,7 @@
         <v>375</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
@@ -6890,7 +6894,7 @@
         <v>376</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
@@ -6901,7 +6905,7 @@
         <v>377</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
@@ -6912,18 +6916,18 @@
         <v>378</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
@@ -6939,21 +6943,21 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>469</v>
@@ -6964,10 +6968,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>470</v>
@@ -6978,10 +6982,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>480</v>
@@ -6992,10 +6996,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>477</v>
@@ -7006,10 +7010,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>478</v>
@@ -7020,10 +7024,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>471</v>
@@ -7034,7 +7038,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>481</v>
@@ -7048,7 +7052,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>472</v>
@@ -7062,7 +7066,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>473</v>
@@ -7076,7 +7080,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>479</v>
@@ -7090,7 +7094,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>474</v>
@@ -7104,10 +7108,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>475</v>
@@ -7118,7 +7122,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>476</v>
@@ -7132,7 +7136,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>483</v>
@@ -7146,7 +7150,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>484</v>
@@ -7157,486 +7161,486 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>487</v>
+        <v>530</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>1184</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>532</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -7686,7 +7690,7 @@
         <v>425</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -7697,7 +7701,7 @@
         <v>426</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -7708,7 +7712,7 @@
         <v>427</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -7719,7 +7723,7 @@
         <v>428</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -7730,7 +7734,7 @@
         <v>429</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -7741,7 +7745,7 @@
         <v>430</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -7752,7 +7756,7 @@
         <v>431</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -7763,7 +7767,7 @@
         <v>432</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -7774,7 +7778,7 @@
         <v>433</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -7785,7 +7789,7 @@
         <v>434</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -7796,7 +7800,7 @@
         <v>435</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -7807,7 +7811,7 @@
         <v>436</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -7818,7 +7822,7 @@
         <v>437</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -7829,7 +7833,7 @@
         <v>438</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -7840,7 +7844,7 @@
         <v>439</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -7851,7 +7855,7 @@
         <v>440</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -7862,7 +7866,7 @@
         <v>441</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -7873,7 +7877,7 @@
         <v>442</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -7884,7 +7888,7 @@
         <v>443</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -7895,7 +7899,7 @@
         <v>444</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -7906,7 +7910,7 @@
         <v>445</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -7917,7 +7921,7 @@
         <v>446</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -7928,7 +7932,7 @@
         <v>447</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -7939,7 +7943,7 @@
         <v>448</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -7950,7 +7954,7 @@
         <v>449</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -7961,7 +7965,7 @@
         <v>450</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -7972,7 +7976,7 @@
         <v>451</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -7983,7 +7987,7 @@
         <v>452</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -7994,7 +7998,7 @@
         <v>453</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -8005,7 +8009,7 @@
         <v>454</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -8016,7 +8020,7 @@
         <v>455</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -8027,7 +8031,7 @@
         <v>456</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -8038,7 +8042,7 @@
         <v>457</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -8049,7 +8053,7 @@
         <v>458</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -8060,7 +8064,7 @@
         <v>459</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -8071,7 +8075,7 @@
         <v>460</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -8082,7 +8086,7 @@
         <v>461</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -8093,7 +8097,7 @@
         <v>462</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -8104,7 +8108,7 @@
         <v>463</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -8115,7 +8119,7 @@
         <v>464</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -8126,7 +8130,7 @@
         <v>465</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -8137,7 +8141,7 @@
         <v>466</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -8148,7 +8152,7 @@
         <v>467</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -8159,406 +8163,406 @@
         <v>468</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>486</v>
@@ -8566,395 +8570,395 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>1093</v>
-      </c>
       <c r="C91" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>1094</v>
-      </c>
       <c r="C92" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>1100</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>475</v>
@@ -8962,838 +8966,838 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>1175</v>
-      </c>
       <c r="C192" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
   </sheetData>

--- a/msg/text/Messages.xlsx
+++ b/msg/text/Messages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="1191">
   <si>
     <t>TJSInternalError</t>
   </si>
@@ -4647,6 +4647,30 @@
   </si>
   <si>
     <t>ＭＳ Ｐゴシック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UTF-16では発生し得ないUTF-8への変換</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Illegal character conversion. UTF-16 to UTF-8.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPIllegalCharacterConversionUTF16toUTF8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>layerTreeOwnerInterfaceを持つオブジェクトを指定してください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>require layerTreeOwnerInterface interface</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TVPRequireLayerTreeOwnerInterfaceInterface</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5903,10 +5927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7641,6 +7665,28 @@
       </c>
       <c r="C153" s="1" t="s">
         <v>529</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A154" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A155" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>1189</v>
       </c>
     </row>
   </sheetData>

--- a/msg/text/Messages.xlsx
+++ b/msg/text/Messages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
+    <workbookView xWindow="5950" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TJS2" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="1578">
   <si>
     <t>TJSInternalError</t>
   </si>
@@ -4276,10 +4276,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Single Step: トレーストラップなどの単一命令メカニズムから 1 つの命令の実行が通知されました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Single Step: A trace trap or other single instruction mechanism signals that one instruction is executed.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4341,10 +4337,6 @@
   </si>
   <si>
     <t>Underflow: 浮動小数点演算の指数が小さく、対応する型によって表現できません。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Underflow: The exponent of a floating point operation is less than the magnitude allowed by the corresponding type.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4647,25 +4639,1282 @@
   </si>
   <si>
     <t>ＭＳ Ｐゴシック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>简体中文</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>发生了内部错误</t>
+  </si>
+  <si>
+    <t>警告：</t>
+  </si>
+  <si>
+    <t>使用运算符时非全局变量放在后面。（请注意：当前运算符在 TJS 2.4.1 有作改动）</t>
+  </si>
+  <si>
+    <t>不能将现有文字转换为 Unicode 文字。包含的有不能识别的文字在内。请确认 data 是否指定有误。</t>
+  </si>
+  <si>
+    <t>不能转换变量类型 %1 到 %2</t>
+  </si>
+  <si>
+    <t>不能将 %1 转换为 Object 类型</t>
+  </si>
+  <si>
+    <t>请指定 ID</t>
+  </si>
+  <si>
+    <t>请使用 = 运算符来对比。（使用 '(A=B)!=0' 来与 0 作对比）</t>
+  </si>
+  <si>
+    <t>进行了错误的表达式</t>
+  </si>
+  <si>
+    <t>内存不足</t>
+  </si>
+  <si>
+    <t>不能从当前表达式中获取到结果</t>
+  </si>
+  <si>
+    <t>发生了访问 null 对象</t>
+  </si>
+  <si>
+    <t>未找到 Member \"%1\"</t>
+  </si>
+  <si>
+    <t>未指名 Member 未找到</t>
+  </si>
+  <si>
+    <t>调用了未实现的方法</t>
+  </si>
+  <si>
+    <t>参数不合法</t>
+  </si>
+  <si>
+    <t>参数个数有误</t>
+  </si>
+  <si>
+    <t>不是一个 function 或者 方法/属性 有误</t>
+  </si>
+  <si>
+    <t>请声明为 Dictionary 或者 Array 对象类型</t>
+  </si>
+  <si>
+    <t>请声明为 Array 对象</t>
+  </si>
+  <si>
+    <t>不能释放 string 内存区域</t>
+  </si>
+  <si>
+    <t>不能创建 string 内存区域</t>
+  </si>
+  <si>
+    <t>不能写 \"break\" 或者 \"continue\" 到这里</t>
+  </si>
+  <si>
+    <t>不能写 \"case\" 到这里</t>
+  </si>
+  <si>
+    <t>不能把 \"return\" 写到这里</t>
+  </si>
+  <si>
+    <t>string/regxp/octet 处理时发生了错误</t>
+  </si>
+  <si>
+    <t>number 处理时发生了错误</t>
+  </si>
+  <si>
+    <t>注释未关闭</t>
+  </si>
+  <si>
+    <t>未知字符：\'%1\'</t>
+  </si>
+  <si>
+    <t>异常发生：%1</t>
+  </si>
+  <si>
+    <t>语法有误 （%1）</t>
+  </si>
+  <si>
+    <t>条件表达式错误</t>
+  </si>
+  <si>
+    <t>父类不存在或者不能定位到父类</t>
+  </si>
+  <si>
+    <t>VM 代码有误</t>
+  </si>
+  <si>
+    <t>错误：取值范围以外</t>
+  </si>
+  <si>
+    <t>对 只读/只写 属性进行了错误操作</t>
+  </si>
+  <si>
+    <t>无效的 object context</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>对象已无效</t>
+  </si>
+  <si>
+    <t>不能在方法之外使用 \"...\"</t>
+  </si>
+  <si>
+    <t>不正确的日期格式</t>
+  </si>
+  <si>
+    <t>不正确的 日期/时间 值</t>
+  </si>
+  <si>
+    <t>不能转换异常 因为 \"Exception\" 不存在</t>
+  </si>
+  <si>
+    <t>不正确的字符串格式</t>
+  </si>
+  <si>
+    <t>被 0 整除了</t>
+  </si>
+  <si>
+    <t>不能重新构造随机数列</t>
+  </si>
+  <si>
+    <t>[TJS2 脚本之外]</t>
+  </si>
+  <si>
+    <t>共计 %1 个对象未释放</t>
+  </si>
+  <si>
+    <t>对象 %1 [%2] 未释放。对象创建在：%2</t>
+  </si>
+  <si>
+    <t>以对象类型和所在位置来分组</t>
+  </si>
+  <si>
+    <t>以为对象类型来分组</t>
+  </si>
+  <si>
+    <t>%4：运行代码在正在删除的进城中，对象 %1[%2] / 对象创建在：%3</t>
+  </si>
+  <si>
+    <t>写入错误</t>
+  </si>
+  <si>
+    <t>读取错误</t>
+  </si>
+  <si>
+    <t>查询错误</t>
+  </si>
+  <si>
+    <t>读取 Bytecode 错误。文件已损坏或者该文件不是 bytecode 文件。</t>
+  </si>
+  <si>
+    <t>对象的哈希图与日志版本不一致</t>
+  </si>
+  <si>
+    <t>对象哈希图已损坏</t>
+  </si>
+  <si>
+    <t>未知错误：%08X</t>
+  </si>
+  <si>
+    <t>未知打包/解包模板字符</t>
+  </si>
+  <si>
+    <t>未知 bit string 字符</t>
+  </si>
+  <si>
+    <t>未知 16 进制字符</t>
+  </si>
+  <si>
+    <t>不支持 uuencode</t>
+  </si>
+  <si>
+    <t>不支持 BER 压缩</t>
+  </si>
+  <si>
+    <t>不支持解包 \'p\'</t>
+  </si>
+  <si>
+    <t>详细版本信息可以通过添加 -about 参数来启动查看。</t>
+  </si>
+  <si>
+    <t>在 %1 行 %2 处发生了内部错误。</t>
+  </si>
+  <si>
+    <t>吉里吉里Z 核心可执行文件 /%1 （编译日期 %DATE% %TIME%）TJS2 %2 Copyright (C) 1997-2013 W.Dee 及其贡献者 All rights reserved.</t>
+  </si>
+  <si>
+    <t>已启动调试设置。</t>
+  </si>
+  <si>
+    <t>命令行参数 %1 = %2 是不合法的。已使用默认值。</t>
+  </si>
+  <si>
+    <t>命令行参数 %1 = %2 是不合法的。</t>
+  </si>
+  <si>
+    <t>未实现。</t>
+  </si>
+  <si>
+    <t>不能打开文件 %1</t>
+  </si>
+  <si>
+    <t>不能找到文件 %1</t>
+  </si>
+  <si>
+    <t>不能写入文件 %1</t>
+  </si>
+  <si>
+    <t>不能在归档 %2 中找到文件 %1</t>
+  </si>
+  <si>
+    <t>非法路径名 %1</t>
+  </si>
+  <si>
+    <t>不支持的媒体类型文件 \"%1\"</t>
+  </si>
+  <si>
+    <t>不能解绑 XP3 exe %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%1 不是 XP3 归档文件或者是未支持的文件</t>
+  </si>
+  <si>
+    <t>请使用路径分隔符 '&gt;' 或者 '/'</t>
+  </si>
+  <si>
+    <t>（Attention）文件名 \"%1\" 含有 '#'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不能从 %1 中获取到本地名称</t>
+  </si>
+  <si>
+    <t>读取发生了错误</t>
+  </si>
+  <si>
+    <t>写入发生了错误</t>
+  </si>
+  <si>
+    <t>查找发生了错误</t>
+  </si>
+  <si>
+    <t>截取过程中发生了错误</t>
+  </si>
+  <si>
+    <t>不能分配内存</t>
+  </si>
+  <si>
+    <t>解压缩失败</t>
+  </si>
+  <si>
+    <t>压缩失败</t>
+  </si>
+  <si>
+    <t>不能写入到归档中</t>
+  </si>
+  <si>
+    <t>不支持密码模式 %1</t>
+  </si>
+  <si>
+    <t>不支持的编码格式 %1</t>
+  </si>
+  <si>
+    <t>不能识别 %1 文字列。</t>
+  </si>
+  <si>
+    <t>%1 是未知的图片格式</t>
+  </si>
+  <si>
+    <t>未找到对应扩展名为 %1 的文件</t>
+  </si>
+  <si>
+    <t>mask 图片的大小和主要图片的大小不一致</t>
+  </si>
+  <si>
+    <t>区域图片 %1 与主要图片的大小不一致</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>载入图片中发生了错误 /%1</t>
+  </si>
+  <si>
+    <t>载入 JPEG 图片发生了错误 /%1</t>
+  </si>
+  <si>
+    <t>载入 PNG 图片过程中发生了错误 /%1</t>
+  </si>
+  <si>
+    <t>载入 ERI 图片过程中发生了错误 /%1</t>
+  </si>
+  <si>
+    <t>载入 TLG 图片过程中发生了错误 /%1</t>
+  </si>
+  <si>
+    <t>图片保存格式无效（%1）</t>
+  </si>
+  <si>
+    <t>发生了对 8bpp 图片格式无效的操作。</t>
+  </si>
+  <si>
+    <t>发生了对 32bpp 图片格式无效的操作。</t>
+  </si>
+  <si>
+    <t>请声明为 Window 类的对象。</t>
+  </si>
+  <si>
+    <t>请声明为 Layer 类的对象。</t>
+  </si>
+  <si>
+    <t>请声明为 Layer 类或者 Bitmap 类的对象。</t>
+  </si>
+  <si>
+    <t>不能指定为 omAuto 模式。</t>
+  </si>
+  <si>
+    <t>图层大小不能指定为 0 以下的数值。</t>
+  </si>
+  <si>
+    <t>不能把主图层设为为隐藏。</t>
+  </si>
+  <si>
+    <t>不能移动主图层。</t>
+  </si>
+  <si>
+    <t>不能将父图层设置为自身。</t>
+  </si>
+  <si>
+    <t>图片位置设置有误。</t>
+  </si>
+  <si>
+    <t>已经设置为 Modal 层或者不能设置隐藏层/无效层为弹出层。</t>
+  </si>
+  <si>
+    <t>非可描绘层类型。</t>
+  </si>
+  <si>
+    <t>来源 layer 未包含图片。</t>
+  </si>
+  <si>
+    <t>未被支持的 layer 类型 %1</t>
+  </si>
+  <si>
+    <t>不可描绘的 face 类型</t>
+  </si>
+  <si>
+    <t>不能转换 layer 类型到指定的 direction</t>
+  </si>
+  <si>
+    <t>当前字型不支持负透明度。</t>
+  </si>
+  <si>
+    <t>转换源包含 bitmap 以外的领域。请指定为正确的转换范围。</t>
+  </si>
+  <si>
+    <t>模糊（blur）矩形的范围一定是包含（0,0）的。不能指定 left 和 right 两个都是正直或者都是负值。（top 和 bottom 一样。）</t>
+  </si>
+  <si>
+    <t>指定的模糊（blur）矩形的范围太大。模糊矩形的像素值应小于 1677 万。</t>
+  </si>
+  <si>
+    <t>正在处理 focus 的过程中不能进行新的 focus 指定。</t>
+  </si>
+  <si>
+    <t>Window 内未找到 Layer。</t>
+  </si>
+  <si>
+    <t>Window 已经设置过 PrimaryLayer 了。</t>
+  </si>
+  <si>
+    <t>事件（Event）%1 需要指定参数（Parameter）。</t>
+  </si>
+  <si>
+    <t>事件（Event）%1 需要指定第二个参数（Parameter）%2</t>
+  </si>
+  <si>
+    <t>未知事件(Event) %1</t>
+  </si>
+  <si>
+    <t>超过允许矩形指定的范围了</t>
+  </si>
+  <si>
+    <t>在画面更新时不能执行该方法</t>
+  </si>
+  <si>
+    <t>实例化当前类失败</t>
+  </si>
+  <si>
+    <t>未支持的 Wave 文件格式 %1</t>
+  </si>
+  <si>
+    <t>在使用新的 Transition 之前需要先停止之前的。在同一 Layer 上执行复数的 Transition 时发生了错误。</t>
+  </si>
+  <si>
+    <t>Transition Handler 发生了错误：%1</t>
+  </si>
+  <si>
+    <t>Transition %1 已被注册过</t>
+  </si>
+  <si>
+    <t>未找到 %1 transition handler.</t>
+  </si>
+  <si>
+    <t>请声明 transition 发生的源</t>
+  </si>
+  <si>
+    <t>Layer 不能持有图片</t>
+  </si>
+  <si>
+    <t>执行 transition 的源和目的都需要持有图片</t>
+  </si>
+  <si>
+    <t>载入 rule 图片 %1 失败</t>
+  </si>
+  <si>
+    <t>请指定 %1 设置</t>
+  </si>
+  <si>
+    <t>发生 transition 的源（%1）和目的（%2） 的 layer 大小不一致</t>
+  </si>
+  <si>
+    <t>发生 transition 的源是自身</t>
+  </si>
+  <si>
+    <t>警告：%1 方法的第二个参数 %2 已在 2.23 beta 2 中开始不推荐使用。请使用 Layer.holdAlpha 属性作替代。</t>
+  </si>
+  <si>
+    <t>不能同时连接多个 WaveSoundBuffer</t>
+  </si>
+  <si>
+    <t>Window 大小必须在 64 到 32768 之间</t>
+  </si>
+  <si>
+    <t>Overlap 数值范围必须在 2 到 32 之间</t>
+  </si>
+  <si>
+    <t>正在异步载入 Bitmap 中</t>
+  </si>
+  <si>
+    <t>拷贝粘贴板数据失败</t>
+  </si>
+  <si>
+    <t>UTF-16 载入失败，转换为 UTF-8</t>
+  </si>
+  <si>
+    <t>（info）读取启动脚本中：</t>
+  </si>
+  <si>
+    <t>（info）启动脚本读取完毕！</t>
+  </si>
+  <si>
+    <t>sizeof(tjs_char) 只能为 2 或者 4</t>
+  </si>
+  <si>
+    <t>媒体 \"%1\" 已被注册</t>
+  </si>
+  <si>
+    <t>媒体 \"%1\" 未注册</t>
+  </si>
+  <si>
+    <t>（info）自动路径再构建中...</t>
+  </si>
+  <si>
+    <t>（info）共找到 %1 个文件，已使用 %2 个文件。（耗时 %3 ms）</t>
+  </si>
+  <si>
+    <t>获取 System.onActive/onDeactive 发生错误：%1</t>
+  </si>
+  <si>
+    <t>主机环境为非 16 位 Unicode 系统</t>
+  </si>
+  <si>
+    <t>（info）尝试从 %1 中读取 XP3 虚拟文件系统信息中</t>
+  </si>
+  <si>
+    <t>指定的文件已经被保护！</t>
+  </si>
+  <si>
+    <t>（info）失败。</t>
+  </si>
+  <si>
+    <t>（info）完成。（共计：%1 个文件，%2 块。）</t>
+  </si>
+  <si>
+    <t>微软雅黑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不能打开字体文件 '%1$s'</t>
+  </si>
+  <si>
+    <t>不能使用 '%1$s' 字体</t>
+  </si>
+  <si>
+    <t>字体光栅化发生错误</t>
+  </si>
+  <si>
+    <t>不支持 BitFields</t>
+  </si>
+  <si>
+    <t>不支持压缩 BMP</t>
+  </si>
+  <si>
+    <t>不支持的调色图像的色彩类型</t>
+  </si>
+  <si>
+    <t>该文件不是一个 Windows BMP 文件或者 OS/2 BMP 文件</t>
+  </si>
+  <si>
+    <t>发生了脚本错误</t>
+  </si>
+  <si>
+    <t>发生了硬件错误</t>
+  </si>
+  <si>
+    <t>脚本编辑器（主）</t>
+  </si>
+  <si>
+    <t>脚本编辑器（异常）</t>
+  </si>
+  <si>
+    <t>未找到 krdevui.dll</t>
+  </si>
+  <si>
+    <t>krdevui.dll 出现了问题：版本不一致</t>
+  </si>
+  <si>
+    <t>色彩深度无效</t>
+  </si>
+  <si>
+    <t>不能载入插件：%1</t>
+  </si>
+  <si>
+    <t>无效插件：%1</t>
+  </si>
+  <si>
+    <t>释放插件失败</t>
+  </si>
+  <si>
+    <t>插件链接时不能链接其它的插件</t>
+  </si>
+  <si>
+    <t>Susie 插件有问题</t>
+  </si>
+  <si>
+    <t>Susie 插件发生了错误：%1</t>
+  </si>
+  <si>
+    <t>插件在使用过程中不能进行释放</t>
+  </si>
+  <si>
+    <t>未加载插件：%1</t>
+  </si>
+  <si>
+    <t>不能为 Bitmap 分配内存：%1（size=%2）</t>
+  </si>
+  <si>
+    <t>%1 超过了扫描范围（正常为 0 到 %2）</t>
+  </si>
+  <si>
+    <t>插件发生了错误：%1</t>
+  </si>
+  <si>
+    <t>无效的 CD-DA 驱动器</t>
+  </si>
+  <si>
+    <t>未找到 CD-DA 驱动器</t>
+  </si>
+  <si>
+    <t>MCI 发生了错误：%1</t>
+  </si>
+  <si>
+    <t>无效的 SMF 文件：%1</t>
+  </si>
+  <si>
+    <t>指定了无效的 MIDI 信息</t>
+  </si>
+  <si>
+    <t>DirectSound 初始化失败：%1</t>
+  </si>
+  <si>
+    <t>生成 DirectSound 第二缓冲区失败：%1/%2</t>
+  </si>
+  <si>
+    <t>无效的 loop 信息：%1</t>
+  </si>
+  <si>
+    <t>指定的菜单项不是子菜单项</t>
+  </si>
+  <si>
+    <t>Direct3D 初始化失败：%1</t>
+  </si>
+  <si>
+    <t>未找到合适的画面显示模式：%1</t>
+  </si>
+  <si>
+    <t>不能切换到全屏模式：%1</t>
+  </si>
+  <si>
+    <t>在全屏模式下无效的属性：%1</t>
+  </si>
+  <si>
+    <t>在全屏模式下无效的方法：%2</t>
+  </si>
+  <si>
+    <t>不能载入鼠标光标：%1</t>
+  </si>
+  <si>
+    <t>不能载入 krmovie.dll。播放视频和 flash 需要 krmovie.dll/krflash.dll。</t>
+  </si>
+  <si>
+    <t>无效的 krmovie.dll 文件。krmovie.dll/krflash.dll 版本有误。</t>
+  </si>
+  <si>
+    <t>krmovie.dll 发生了错误：%1</t>
+  </si>
+  <si>
+    <t>Window 已经不存在了</t>
+  </si>
+  <si>
+    <t>预渲染字体映射失败：%1</t>
+  </si>
+  <si>
+    <t>不能写入 %1 文件</t>
+  </si>
+  <si>
+    <t>不能删除文件。%1 文件不存在。</t>
+  </si>
+  <si>
+    <t>不能执行 %1 文件。</t>
+  </si>
+  <si>
+    <t>并没有在文件中找到插件所需要 %1 方法</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = (异常发生)</t>
+  </si>
+  <si>
+    <t>控制台：</t>
+  </si>
+  <si>
+    <t>（info）正在列出 %1 中的文件...</t>
+  </si>
+  <si>
+    <t>（info）总物理内存：%1</t>
+  </si>
+  <si>
+    <t>（info）已选择项目的目录：%1</t>
+  </si>
+  <si>
+    <t>可执行文件太小</t>
+  </si>
+  <si>
+    <t>（info）载入可执行文件内置选项失败（已忽略）：%1</t>
+  </si>
+  <si>
+    <t>（info）成功载入可执行文件内置选项。</t>
+  </si>
+  <si>
+    <t>未找到文件。</t>
+  </si>
+  <si>
+    <t>（info）载入配置文件 \"%1\" 失败（已忽略）：%2</t>
+  </si>
+  <si>
+    <t>（info）成功载入配置文件 \"%1\"</t>
+  </si>
+  <si>
+    <t>（info）Data 路径不存在，尝试新建... %1</t>
+  </si>
+  <si>
+    <t>成功。</t>
+  </si>
+  <si>
+    <t>失败。</t>
+  </si>
+  <si>
+    <t>（info）Data 路径：%1</t>
+  </si>
+  <si>
+    <t>（info）已声明设置（早声明的优先级更高）：</t>
+  </si>
+  <si>
+    <t>（无）</t>
+  </si>
+  <si>
+    <t>（info）CPU 时钟频率（大致数值）：%dMHz</t>
+  </si>
+  <si>
+    <t>程序已在 %1（%2）上启动。</t>
+  </si>
+  <si>
+    <t>未知错误！</t>
+  </si>
+  <si>
+    <t>退出识别代码：%d\n</t>
+  </si>
+  <si>
+    <t>发生了致命的错误。</t>
+  </si>
+  <si>
+    <t>已开启指点数位设备。</t>
+  </si>
+  <si>
+    <t>当前机器有集成数位设备。</t>
+  </si>
+  <si>
+    <t>当前机器有外置触控数位设备。</t>
+  </si>
+  <si>
+    <t>当前机器有集成数位笔设备。</t>
+  </si>
+  <si>
+    <t>当前机器有外置数位笔设备。</t>
+  </si>
+  <si>
+    <t>当前机器支持多点触控。</t>
+  </si>
+  <si>
+    <t>触控数位设备已准备就绪。</t>
+  </si>
+  <si>
+    <t>CPU 检测失败。</t>
+  </si>
+  <si>
+    <t>CPU 检测失败：不支持低于 P4 系列的 CPU。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（info）CPU #%1 : </t>
+  </si>
+  <si>
+    <t>CPU 检查失败：不支持的 CPU 型号 \r\n%1</t>
+  </si>
+  <si>
+    <t>（info）最终检测出 CPU 所支持的特性：%1</t>
+  </si>
+  <si>
+    <t>（info）CPU 时钟频率：%.1fMHz</t>
+  </si>
+  <si>
+    <t>创建 Direct3D9 失败。</t>
+  </si>
+  <si>
+    <t>备用缓冲区格式未确定。</t>
+  </si>
+  <si>
+    <t>创建 Direct3D9 设备失败。</t>
+  </si>
+  <si>
+    <t>设置 viewport 失败。</t>
+  </si>
+  <si>
+    <t>设置渲染状态失败。</t>
+  </si>
+  <si>
+    <t>（warning）图像尺寸过大。可能创建贴图会失败。</t>
+  </si>
+  <si>
+    <t>请使用能被 2 整除的 surface。</t>
+  </si>
+  <si>
+    <t>不能分配 D3D off-screen surface/HR=%1</t>
+  </si>
+  <si>
+    <t>BasicDrawDevice: 创建 Direct3D9 设备失败：%1</t>
+  </si>
+  <si>
+    <t>BasicDrawDevice: 创建 Direct3D9 设备失败：未知原因</t>
+  </si>
+  <si>
+    <t>BasicDrawDevice: Texture 已被锁定（在未调用 EndBitmapCompletion() 的情况下 StartBitmapCompletion() 已经被调用了 2 次）,解锁中</t>
+  </si>
+  <si>
+    <t>内部错误 /HR=%1</t>
+  </si>
+  <si>
+    <t>BasicDrawDevice: (inf) Polygon 绘制失败/HR=%1</t>
+  </si>
+  <si>
+    <t>BasicDrawDevice: (inf) IDirect3DDevice::Present 失败/HR=%1</t>
+  </si>
+  <si>
+    <t>ChangeDisplaySettings 失败: DISP_CHANGE_RESTART</t>
+  </si>
+  <si>
+    <t>创建 screen DC 失败</t>
+  </si>
+  <si>
+    <t>创建 offscreen bitmap 失败</t>
+  </si>
+  <si>
+    <t>创建 offscreen DC 失败</t>
+  </si>
+  <si>
+    <t>（info）Susie 插件信息：%1</t>
+  </si>
+  <si>
+    <t>所给定的 bitmap header 不被 Susie 插件支持。</t>
+  </si>
+  <si>
+    <t>（fatal）不能创建任何绘图对象。</t>
+  </si>
+  <si>
+    <t>不支持超过 1 个以上的 layer 管理器 \"basic draw\"</t>
+  </si>
+  <si>
+    <t>无效的视频尺寸</t>
+  </si>
+  <si>
+    <t>从 Rough VSync API 中读取：%1</t>
+  </si>
+  <si>
+    <t>Rough VSync 内部仍旧有错误，假定为默认值（16）</t>
+  </si>
+  <si>
+    <t>（info）未找到 IDirect3D9 或更新的 Interface。获取正在使用的 Direct3D 驱动的信息。</t>
+  </si>
+  <si>
+    <t>（info）载入 Direct3D...</t>
+  </si>
+  <si>
+    <t>不能加载 d3d9.dll</t>
+  </si>
+  <si>
+    <t>在 d3d9.dll 中未找到 Direct3DCreate9 方法。</t>
+  </si>
+  <si>
+    <t>（info）environment：使用 %1</t>
+  </si>
+  <si>
+    <t>（info）查找全屏最佳分辨率中...</t>
+  </si>
+  <si>
+    <t>（info）condition：推荐屏幕模式：%1</t>
+  </si>
+  <si>
+    <t>（info）condition：模式：%1</t>
+  </si>
+  <si>
+    <t>（info）condition：缩放模式：%1</t>
+  </si>
+  <si>
+    <t>（info）environment：默认屏幕模式：%1</t>
+  </si>
+  <si>
+    <t>（info）environment：默认屏幕比例：%1:%2</t>
+  </si>
+  <si>
+    <t>（info）environment：可用显示模式：</t>
+  </si>
+  <si>
+    <t>（info）Panic！未从驱动中找到合适的屏幕模式。尝试使用默认画面尺寸和色彩数。</t>
+  </si>
+  <si>
+    <t>（info）尝试使用 %1 屏幕显示模式。</t>
+  </si>
+  <si>
+    <t>所有屏幕显示模式都已测试，未找到可用的。</t>
+  </si>
+  <si>
+    <t>（info）成功切换屏幕显示模式。</t>
+  </si>
+  <si>
+    <t>选择 XP3 文件或者 文件夹。</t>
+  </si>
+  <si>
+    <t>D3D：设备已经消失。当前不能进行重置。</t>
+  </si>
+  <si>
+    <t>D3D：内部驱动错误。请关闭程序后重新启动。</t>
+  </si>
+  <si>
+    <t>D3D：调用了无效的方法。例如：方法的参数不是一个有效的指针（pointer）</t>
+  </si>
+  <si>
+    <t>D3D：Direct3D 没有足够的显存来执行该操作。</t>
+  </si>
+  <si>
+    <t>D3D：Direct3D 不能分配有效的内存来调用。</t>
+  </si>
+  <si>
+    <t>D3D：错误的 Texture 格式。</t>
+  </si>
+  <si>
+    <t>D3D：不支持的色彩操作类型。</t>
+  </si>
+  <si>
+    <t>D3D：不支持的色彩参数。</t>
+  </si>
+  <si>
+    <t>D3D：不支持的 alpha 通道操作类型。</t>
+  </si>
+  <si>
+    <t>D3D：不支持的 alpha 通道参数类型。</t>
+  </si>
+  <si>
+    <t>D3D：操作过多。</t>
+  </si>
+  <si>
+    <t>D3D：当前 Texture 滤镜不能同时使用。</t>
+  </si>
+  <si>
+    <t>D3D：不支持的 Factor 值。</t>
+  </si>
+  <si>
+    <t>D3D：不能同时设置 render 状态。</t>
+  </si>
+  <si>
+    <t>D3D：不支持的 Texture 滤镜类型。</t>
+  </si>
+  <si>
+    <t>D3D：不能同时使用当前 Texture。</t>
+  </si>
+  <si>
+    <t>D3D：要求的 item 未找到。</t>
+  </si>
+  <si>
+    <t>D3D：可以声明更多的 buffer 数据。</t>
+  </si>
+  <si>
+    <t>D3D：设备已经丢失，不过可以进行重置操作。</t>
+  </si>
+  <si>
+    <t>D3D：当前设备不支持所查询的技术。</t>
+  </si>
+  <si>
+    <t>D3D：所需的设备类型无效。</t>
+  </si>
+  <si>
+    <t>未使用。</t>
+  </si>
+  <si>
+    <t>D3D：正在绘制过程中</t>
+  </si>
+  <si>
+    <t>D3D：设备已挂起</t>
+  </si>
+  <si>
+    <t>D3D：当前设备不支持指定的尺寸或者显示模式。</t>
+  </si>
+  <si>
+    <t>D3D：当前设备不支持指定的 surface format overlay。</t>
+  </si>
+  <si>
+    <t>D3D：指定的内容不能被加保护。</t>
+  </si>
+  <si>
+    <t>D3D：不支持指定的加密算法。</t>
+  </si>
+  <si>
+    <t>D3D：当前状态下没有顺序列。</t>
+  </si>
+  <si>
+    <t>D3D：已移除硬件适配器。</t>
+  </si>
+  <si>
+    <t>D3D：成功。不过，自动计算 mipmaps 不支持该格式。</t>
+  </si>
+  <si>
+    <t>D3D：Direct3D 子系统内发生未知错误。</t>
+  </si>
+  <si>
+    <t>D3D：无效的参数传递到了返回值类型的方法中。</t>
+  </si>
+  <si>
+    <t>D3D：未知错误。</t>
+  </si>
+  <si>
+    <t>Access Violation：该线程尝试读取/写入到一个自己无权访问的虚拟地址。</t>
+  </si>
+  <si>
+    <t>Break Point：到达了断点</t>
+  </si>
+  <si>
+    <t>%1 个： [%2]\r\n                     %3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%1 个：[%2]\n                     %3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%1 个： [%2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%4：运行代码在正在删除的进城中，对象 %1[%2] / 对象创建在：%3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不支持的头文件版本。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（info）触下…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ... 已中断 [已超时]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ... 已中断 [超出字节限制]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DrawGlyph 失败</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Panic！Layer 对象没有属性构造方法。未进行调用构造方法？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未知 transition 类型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未知 Update 类型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Update 类型：暂不支持 tutGiveUpdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>错误代码：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libpng 错误。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未知色彩调色类型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPEG 文件不支持色彩调整</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未知色彩类型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>图片过大</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存 PNG 时出错</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLG 图片不能用作 province(_p) 或者 mask(_m) 图像的 universal transition rule。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">不支持的色彩数量 : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data flag 必须为 0 (所有的 flag 当前都未被支持)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不支持的色彩类型：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暂未支持外置 golomb bit length table.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不支持 entropy 编码方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLG header 无效或不支持的 TLG 版本。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLG SDS tag 结构异常，名字长度后面缺少列。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLG SDS tag 结构异常，缺少等号后面的值</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLG SDS tag 结构异常，值长度后面缺少列。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLG SDS tag 结构异常，tag 后面缺少逗号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文件大小为 0。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分配内存时发生错误。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>读取文件时发生错误。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>无效的预渲染字体文件或者未找到签名文件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非 16bit Unicode 字体文件。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>无效的 header 版本。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SaveTLG6: 内存不足</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SaveTLG6:bit 长度太大 (可能是所给图片尺寸过大的原因。)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不能从绘图设备中获取到 interface 信息。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChangeDisplaySettings 失败: DISP_CHANGE_RESTART</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChangeDisplaySettings 失败: DISP_CHANGE_BADFLAGS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChangeDisplaySettings 失败: DISP_CHANGE_BADPARAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChangeDisplaySettings 失败: DISP_CHANGE_FAILED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChangeDisplaySettings 失败: DISP_CHANGE_BADMODE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChangeDisplaySettings 失败: DISP_CHANGE_NOTUPDATED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Single Step: トレーストラップなどの単一命令メカニズムから 1 つの命令の実行が通知されました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Noncontinuable Exception: 在不可继续执行的错误发生后，线程依然尝试继续执行。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Guard Page:线程访问了分配在 PAGE_GUARD 修饰符上的内存。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Illegal Instruction: 线程尝试执行一个无效的指令集。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In Page Error: 线程尝试访问一个当前不存在的页面同时系统也无法加载该页面。该错误可能发生在：通过网络执行程序时。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid Disposition:一个 exception handler 返回了一个无效的反方向给 exception dispatcher. 程序员在使用高级语言时不会发生此错误。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid Handle:线程使用了一个无效的 handler 来处理内核对象。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stack Overflow: 线程已经使用了自己的 stack.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unwind Consolidate: A frame consolidation has been executed.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不能显示弹窗。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当是一个窗口时不能显示弹窗。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Priv Instruction:线程尝试执行一个当前电脑不允许的指令集。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Overflow: 溢出。操作创建的值对目标 register 所持有的 xx 来说过大。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Divide By Zero:线程尝试使用零进行整除。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Underflow: The exponent of a floating point operation is less than the magnitude allowed by the corresponding type.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Underflow: 浮点运算的指数小于相应类型允许的幅度。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stack Check:由于浮点操作，堆栈已溢出或正在溢出。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Overflow: 浮点运算的指数大于相应类型允许的量值。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid Operation: 无效的运算符操作。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Inexact Result:浮点运算的结果不能精确地表示为小数。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -4673,7 +5922,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -4682,21 +5931,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -4748,8 +5997,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4765,7 +6014,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5051,21 +6300,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.26953125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5078,8 +6327,11 @@
       <c r="D1" s="1" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5089,8 +6341,11 @@
       <c r="C2" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" s="1" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5100,8 +6355,11 @@
       <c r="C3" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" s="1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5111,8 +6369,11 @@
       <c r="C4" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5122,8 +6383,11 @@
       <c r="C5" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -5133,8 +6397,11 @@
       <c r="C6" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -5144,8 +6411,11 @@
       <c r="C7" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -5155,8 +6425,11 @@
       <c r="C8" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -5166,8 +6439,11 @@
       <c r="C9" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -5177,8 +6453,11 @@
       <c r="C10" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10" s="1" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -5188,8 +6467,11 @@
       <c r="C11" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -5199,8 +6481,11 @@
       <c r="C12" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E12" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -5210,8 +6495,11 @@
       <c r="C13" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E13" s="1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -5221,8 +6509,11 @@
       <c r="C14" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14" s="1" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -5232,8 +6523,11 @@
       <c r="C15" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E15" s="1" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -5243,8 +6537,11 @@
       <c r="C16" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E16" s="1" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -5254,8 +6551,11 @@
       <c r="C17" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E17" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -5265,8 +6565,11 @@
       <c r="C18" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E18" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -5276,8 +6579,11 @@
       <c r="C19" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E19" s="1" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -5287,8 +6593,11 @@
       <c r="C20" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E20" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -5298,8 +6607,11 @@
       <c r="C21" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E21" s="1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -5309,8 +6621,11 @@
       <c r="C22" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E22" s="1" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -5320,8 +6635,11 @@
       <c r="C23" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E23" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -5331,8 +6649,11 @@
       <c r="C24" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E24" s="1" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -5342,8 +6663,11 @@
       <c r="C25" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E25" s="1" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -5353,8 +6677,11 @@
       <c r="C26" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E26" s="1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -5364,8 +6691,11 @@
       <c r="C27" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E27" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -5375,8 +6705,11 @@
       <c r="C28" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E28" s="1" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -5386,8 +6719,11 @@
       <c r="C29" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E29" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -5397,8 +6733,11 @@
       <c r="C30" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E30" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -5408,8 +6747,11 @@
       <c r="C31" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E31" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -5419,8 +6761,11 @@
       <c r="C32" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E32" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -5430,8 +6775,11 @@
       <c r="C33" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E33" s="1" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -5441,8 +6789,11 @@
       <c r="C34" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E34" s="1" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -5452,8 +6803,11 @@
       <c r="C35" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E35" s="1" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -5463,8 +6817,11 @@
       <c r="C36" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E36" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -5474,8 +6831,11 @@
       <c r="C37" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E37" s="1" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -5485,8 +6845,11 @@
       <c r="C38" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E38" s="1" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -5496,8 +6859,11 @@
       <c r="C39" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E39" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -5507,8 +6873,11 @@
       <c r="C40" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E40" s="1" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -5518,8 +6887,11 @@
       <c r="C41" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E41" s="1" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -5529,8 +6901,11 @@
       <c r="C42" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E42" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -5540,8 +6915,11 @@
       <c r="C43" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E43" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -5551,8 +6929,11 @@
       <c r="C44" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E44" s="1" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -5562,8 +6943,11 @@
       <c r="C45" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E45" s="1" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -5573,8 +6957,11 @@
       <c r="C46" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E46" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -5584,8 +6971,11 @@
       <c r="C47" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E47" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -5595,8 +6985,11 @@
       <c r="C48" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E48" s="1" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -5606,8 +6999,11 @@
       <c r="C49" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E49" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -5620,8 +7016,11 @@
       <c r="D50" s="1" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E50" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -5631,8 +7030,11 @@
       <c r="C51" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E51" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -5645,8 +7047,11 @@
       <c r="D52" s="1" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E52" s="1" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -5656,8 +7061,11 @@
       <c r="C53" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E53" s="1" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -5667,8 +7075,11 @@
       <c r="C54" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E54" s="1" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
@@ -5678,8 +7089,11 @@
       <c r="C55" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E55" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
@@ -5692,8 +7106,11 @@
       <c r="D56" s="1" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E56" s="1" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -5703,8 +7120,11 @@
       <c r="C57" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E57" s="1" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -5714,8 +7134,11 @@
       <c r="C58" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E58" s="1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -5728,8 +7151,11 @@
       <c r="D59" s="1" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E59" s="1" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>55</v>
       </c>
@@ -5739,8 +7165,11 @@
       <c r="C60" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E60" s="1" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -5750,8 +7179,11 @@
       <c r="C61" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E61" s="1" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -5761,8 +7193,11 @@
       <c r="C62" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E62" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>58</v>
       </c>
@@ -5772,8 +7207,11 @@
       <c r="C63" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E63" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>59</v>
       </c>
@@ -5783,8 +7221,11 @@
       <c r="C64" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E64" s="1" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>666</v>
       </c>
@@ -5794,8 +7235,11 @@
       <c r="C65" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E65" s="1" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>667</v>
       </c>
@@ -5805,8 +7249,11 @@
       <c r="C66" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E66" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>668</v>
       </c>
@@ -5816,8 +7263,11 @@
       <c r="C67" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E67" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>669</v>
       </c>
@@ -5827,8 +7277,11 @@
       <c r="C68" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E68" s="1" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>670</v>
       </c>
@@ -5838,8 +7291,11 @@
       <c r="C69" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E69" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>671</v>
       </c>
@@ -5849,8 +7305,11 @@
       <c r="C70" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E70" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>672</v>
       </c>
@@ -5860,8 +7319,11 @@
       <c r="C71" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E71" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>673</v>
       </c>
@@ -5871,8 +7333,11 @@
       <c r="C72" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E72" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>674</v>
       </c>
@@ -5882,8 +7347,11 @@
       <c r="C73" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E73" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>950</v>
       </c>
@@ -5892,6 +7360,9 @@
       </c>
       <c r="C74" s="1" t="s">
         <v>197</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>1247</v>
       </c>
     </row>
   </sheetData>
@@ -5903,22 +7374,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView topLeftCell="B127" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="42.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.36328125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5928,8 +7400,11 @@
       <c r="C1" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>291</v>
       </c>
@@ -5939,8 +7414,11 @@
       <c r="C2" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E2" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>203</v>
       </c>
@@ -5950,19 +7428,25 @@
       <c r="C3" s="1" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E3" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1168</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>205</v>
       </c>
@@ -5972,8 +7456,11 @@
       <c r="C5" s="1" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E5" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>206</v>
       </c>
@@ -5983,8 +7470,11 @@
       <c r="C6" s="1" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E6" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>207</v>
       </c>
@@ -5994,8 +7484,11 @@
       <c r="C7" s="1" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E7" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>208</v>
       </c>
@@ -6005,8 +7498,11 @@
       <c r="C8" s="1" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E8" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>209</v>
       </c>
@@ -6016,8 +7512,11 @@
       <c r="C9" s="1" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E9" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>210</v>
       </c>
@@ -6027,8 +7526,11 @@
       <c r="C10" s="1" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E10" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>211</v>
       </c>
@@ -6038,8 +7540,11 @@
       <c r="C11" s="1" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E11" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>212</v>
       </c>
@@ -6049,8 +7554,11 @@
       <c r="C12" s="1" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E12" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>213</v>
       </c>
@@ -6060,8 +7568,11 @@
       <c r="C13" s="1" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E13" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>214</v>
       </c>
@@ -6071,8 +7582,11 @@
       <c r="C14" s="1" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E14" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>215</v>
       </c>
@@ -6082,8 +7596,11 @@
       <c r="C15" s="1" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E15" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>216</v>
       </c>
@@ -6093,8 +7610,11 @@
       <c r="C16" s="1" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E16" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>217</v>
       </c>
@@ -6104,8 +7624,11 @@
       <c r="C17" s="1" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E17" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>218</v>
       </c>
@@ -6115,8 +7638,11 @@
       <c r="C18" s="1" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E18" s="1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>219</v>
       </c>
@@ -6126,8 +7652,11 @@
       <c r="C19" s="1" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E19" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>220</v>
       </c>
@@ -6137,8 +7666,11 @@
       <c r="C20" s="1" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E20" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>221</v>
       </c>
@@ -6148,8 +7680,11 @@
       <c r="C21" s="1" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E21" s="1" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>222</v>
       </c>
@@ -6159,8 +7694,11 @@
       <c r="C22" s="1" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E22" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>223</v>
       </c>
@@ -6170,8 +7708,11 @@
       <c r="C23" s="1" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E23" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>224</v>
       </c>
@@ -6181,8 +7722,11 @@
       <c r="C24" s="1" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E24" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>225</v>
       </c>
@@ -6192,8 +7736,11 @@
       <c r="C25" s="1" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E25" s="1" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>226</v>
       </c>
@@ -6203,8 +7750,11 @@
       <c r="C26" s="1" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E26" s="1" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>227</v>
       </c>
@@ -6214,8 +7764,11 @@
       <c r="C27" s="1" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E27" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>228</v>
       </c>
@@ -6225,8 +7778,11 @@
       <c r="C28" s="1" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E28" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>229</v>
       </c>
@@ -6236,8 +7792,11 @@
       <c r="C29" s="1" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E29" s="1" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>230</v>
       </c>
@@ -6247,8 +7806,11 @@
       <c r="C30" s="1" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E30" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>231</v>
       </c>
@@ -6258,8 +7820,11 @@
       <c r="C31" s="1" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E31" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>232</v>
       </c>
@@ -6269,8 +7834,11 @@
       <c r="C32" s="1" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E32" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>233</v>
       </c>
@@ -6280,8 +7848,11 @@
       <c r="C33" s="1" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E33" s="1" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>234</v>
       </c>
@@ -6291,8 +7862,11 @@
       <c r="C34" s="1" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E34" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>235</v>
       </c>
@@ -6302,8 +7876,11 @@
       <c r="C35" s="1" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E35" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>236</v>
       </c>
@@ -6313,8 +7890,11 @@
       <c r="C36" s="1" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E36" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>237</v>
       </c>
@@ -6324,8 +7904,11 @@
       <c r="C37" s="1" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E37" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>259</v>
       </c>
@@ -6335,8 +7918,11 @@
       <c r="C38" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E38" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>260</v>
       </c>
@@ -6346,8 +7932,11 @@
       <c r="C39" s="1" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E39" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>261</v>
       </c>
@@ -6357,8 +7946,11 @@
       <c r="C40" s="1" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E40" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>262</v>
       </c>
@@ -6368,8 +7960,11 @@
       <c r="C41" s="1" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E41" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>238</v>
       </c>
@@ -6379,8 +7974,11 @@
       <c r="C42" s="1" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E42" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>263</v>
       </c>
@@ -6390,8 +7988,11 @@
       <c r="C43" s="1" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E43" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>264</v>
       </c>
@@ -6401,8 +8002,11 @@
       <c r="C44" s="1" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E44" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>239</v>
       </c>
@@ -6412,8 +8016,11 @@
       <c r="C45" s="1" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E45" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>240</v>
       </c>
@@ -6423,30 +8030,39 @@
       <c r="C46" s="1" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E46" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E48" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>241</v>
       </c>
@@ -6456,8 +8072,11 @@
       <c r="C49" s="1" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E49" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>242</v>
       </c>
@@ -6467,8 +8086,11 @@
       <c r="C50" s="1" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E50" s="1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>243</v>
       </c>
@@ -6478,8 +8100,11 @@
       <c r="C51" s="1" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E51" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>244</v>
       </c>
@@ -6489,8 +8114,11 @@
       <c r="C52" s="1" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E52" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>245</v>
       </c>
@@ -6500,8 +8128,11 @@
       <c r="C53" s="1" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E53" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>246</v>
       </c>
@@ -6511,8 +8142,11 @@
       <c r="C54" s="1" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E54" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>247</v>
       </c>
@@ -6522,8 +8156,11 @@
       <c r="C55" s="1" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E55" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>248</v>
       </c>
@@ -6533,8 +8170,11 @@
       <c r="C56" s="1" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E56" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>249</v>
       </c>
@@ -6544,8 +8184,11 @@
       <c r="C57" s="1" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E57" s="1" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>250</v>
       </c>
@@ -6555,8 +8198,11 @@
       <c r="C58" s="1" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E58" s="1" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>251</v>
       </c>
@@ -6566,8 +8212,11 @@
       <c r="C59" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E59" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>252</v>
       </c>
@@ -6577,8 +8226,11 @@
       <c r="C60" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E60" s="1" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>253</v>
       </c>
@@ -6588,8 +8240,11 @@
       <c r="C61" s="1" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E61" s="1" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>254</v>
       </c>
@@ -6599,8 +8254,11 @@
       <c r="C62" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E62" s="1" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>255</v>
       </c>
@@ -6610,8 +8268,11 @@
       <c r="C63" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E63" s="1" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>256</v>
       </c>
@@ -6621,8 +8282,11 @@
       <c r="C64" s="1" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E64" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>257</v>
       </c>
@@ -6632,8 +8296,11 @@
       <c r="C65" s="1" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E65" s="1" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>258</v>
       </c>
@@ -6643,8 +8310,11 @@
       <c r="C66" s="1" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E66" s="1" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>265</v>
       </c>
@@ -6654,8 +8324,11 @@
       <c r="C67" s="1" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E67" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>266</v>
       </c>
@@ -6665,8 +8338,11 @@
       <c r="C68" s="1" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E68" s="1" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>267</v>
       </c>
@@ -6676,8 +8352,11 @@
       <c r="C69" s="1" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E69" s="1" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>268</v>
       </c>
@@ -6687,8 +8366,11 @@
       <c r="C70" s="1" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E70" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>269</v>
       </c>
@@ -6698,8 +8380,11 @@
       <c r="C71" s="1" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E71" s="1" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>270</v>
       </c>
@@ -6709,8 +8394,11 @@
       <c r="C72" s="1" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E72" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>271</v>
       </c>
@@ -6720,8 +8408,11 @@
       <c r="C73" s="1" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E73" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>272</v>
       </c>
@@ -6731,8 +8422,11 @@
       <c r="C74" s="1" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E74" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>273</v>
       </c>
@@ -6742,8 +8436,11 @@
       <c r="C75" s="1" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E75" s="1" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>274</v>
       </c>
@@ -6753,8 +8450,11 @@
       <c r="C76" s="1" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E76" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>275</v>
       </c>
@@ -6764,8 +8464,11 @@
       <c r="C77" s="1" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E77" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>276</v>
       </c>
@@ -6775,8 +8478,11 @@
       <c r="C78" s="1" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E78" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>277</v>
       </c>
@@ -6786,8 +8492,11 @@
       <c r="C79" s="1" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E79" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>278</v>
       </c>
@@ -6797,8 +8506,11 @@
       <c r="C80" s="1" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E80" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>279</v>
       </c>
@@ -6808,8 +8520,11 @@
       <c r="C81" s="1" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E81" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>280</v>
       </c>
@@ -6819,8 +8534,11 @@
       <c r="C82" s="1" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E82" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>281</v>
       </c>
@@ -6830,8 +8548,11 @@
       <c r="C83" s="1" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E83" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>282</v>
       </c>
@@ -6841,8 +8562,11 @@
       <c r="C84" s="1" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E84" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>283</v>
       </c>
@@ -6852,8 +8576,11 @@
       <c r="C85" s="1" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E85" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>284</v>
       </c>
@@ -6863,8 +8590,11 @@
       <c r="C86" s="1" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E86" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>285</v>
       </c>
@@ -6874,8 +8604,11 @@
       <c r="C87" s="1" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E87" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>286</v>
       </c>
@@ -6885,8 +8618,11 @@
       <c r="C88" s="1" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E88" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>287</v>
       </c>
@@ -6896,8 +8632,11 @@
       <c r="C89" s="1" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E89" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>288</v>
       </c>
@@ -6907,8 +8646,11 @@
       <c r="C90" s="1" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E90" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>289</v>
       </c>
@@ -6918,8 +8660,11 @@
       <c r="C91" s="1" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E91" s="1" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>722</v>
       </c>
@@ -6929,8 +8674,11 @@
       <c r="C92" s="1" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E92" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>290</v>
       </c>
@@ -6940,8 +8688,11 @@
       <c r="C93" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E93" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>675</v>
       </c>
@@ -6951,8 +8702,11 @@
       <c r="C94" s="1" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E94" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>683</v>
       </c>
@@ -6963,10 +8717,13 @@
         <v>469</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>684</v>
       </c>
@@ -6977,10 +8734,13 @@
         <v>470</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>676</v>
       </c>
@@ -6991,10 +8751,13 @@
         <v>480</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>677</v>
       </c>
@@ -7005,10 +8768,13 @@
         <v>477</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>678</v>
       </c>
@@ -7019,10 +8785,13 @@
         <v>478</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>685</v>
       </c>
@@ -7033,10 +8802,13 @@
         <v>471</v>
       </c>
       <c r="E100" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>686</v>
       </c>
@@ -7047,10 +8819,13 @@
         <v>481</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>679</v>
       </c>
@@ -7061,10 +8836,13 @@
         <v>472</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>680</v>
       </c>
@@ -7075,10 +8853,13 @@
         <v>473</v>
       </c>
       <c r="E103" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>682</v>
       </c>
@@ -7089,10 +8870,13 @@
         <v>479</v>
       </c>
       <c r="E104" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>681</v>
       </c>
@@ -7103,10 +8887,13 @@
         <v>474</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H105" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>687</v>
       </c>
@@ -7117,10 +8904,13 @@
         <v>475</v>
       </c>
       <c r="E106" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>688</v>
       </c>
@@ -7131,10 +8921,13 @@
         <v>476</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>689</v>
       </c>
@@ -7145,10 +8938,13 @@
         <v>483</v>
       </c>
       <c r="E108" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>690</v>
       </c>
@@ -7158,19 +8954,25 @@
       <c r="C109" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E109" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>530</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1181</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>723</v>
       </c>
@@ -7180,8 +8982,11 @@
       <c r="C111" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E111" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>724</v>
       </c>
@@ -7191,8 +8996,11 @@
       <c r="C112" s="1" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E112" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>725</v>
       </c>
@@ -7202,8 +9010,11 @@
       <c r="C113" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E113" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>726</v>
       </c>
@@ -7213,8 +9024,11 @@
       <c r="C114" s="1" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E114" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>727</v>
       </c>
@@ -7224,8 +9038,11 @@
       <c r="C115" s="1" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E115" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>728</v>
       </c>
@@ -7235,8 +9052,11 @@
       <c r="C116" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E116" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>729</v>
       </c>
@@ -7246,8 +9066,11 @@
       <c r="C117" s="1" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E117" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>730</v>
       </c>
@@ -7257,8 +9080,11 @@
       <c r="C118" s="1" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E118" s="1" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>731</v>
       </c>
@@ -7268,8 +9094,11 @@
       <c r="C119" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E119" s="1" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>732</v>
       </c>
@@ -7279,8 +9108,11 @@
       <c r="C120" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E120" s="1" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>733</v>
       </c>
@@ -7290,8 +9122,11 @@
       <c r="C121" s="1" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E121" s="1" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>734</v>
       </c>
@@ -7301,8 +9136,11 @@
       <c r="C122" s="1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E122" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>735</v>
       </c>
@@ -7312,8 +9150,11 @@
       <c r="C123" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E123" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>736</v>
       </c>
@@ -7323,8 +9164,11 @@
       <c r="C124" s="1" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E124" s="1" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>737</v>
       </c>
@@ -7334,8 +9178,11 @@
       <c r="C125" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E125" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>738</v>
       </c>
@@ -7345,8 +9192,11 @@
       <c r="C126" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E126" s="1" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>739</v>
       </c>
@@ -7356,8 +9206,11 @@
       <c r="C127" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E127" s="1" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>740</v>
       </c>
@@ -7367,8 +9220,11 @@
       <c r="C128" s="1" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E128" s="1" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>741</v>
       </c>
@@ -7378,8 +9234,11 @@
       <c r="C129" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E129" s="1" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>742</v>
       </c>
@@ -7389,8 +9248,11 @@
       <c r="C130" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E130" s="1" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>743</v>
       </c>
@@ -7400,8 +9262,11 @@
       <c r="C131" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E131" s="1" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>744</v>
       </c>
@@ -7411,8 +9276,11 @@
       <c r="C132" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E132" s="1" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>745</v>
       </c>
@@ -7422,8 +9290,11 @@
       <c r="C133" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E133" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>746</v>
       </c>
@@ -7433,8 +9304,11 @@
       <c r="C134" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E134" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>747</v>
       </c>
@@ -7444,8 +9318,11 @@
       <c r="C135" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E135" s="1" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>748</v>
       </c>
@@ -7455,8 +9332,11 @@
       <c r="C136" s="1" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E136" s="1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>749</v>
       </c>
@@ -7466,8 +9346,11 @@
       <c r="C137" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E137" s="1" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>750</v>
       </c>
@@ -7477,8 +9360,11 @@
       <c r="C138" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E138" s="1" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>751</v>
       </c>
@@ -7488,8 +9374,11 @@
       <c r="C139" s="1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E139" s="1" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>752</v>
       </c>
@@ -7499,8 +9388,11 @@
       <c r="C140" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E140" s="1" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>753</v>
       </c>
@@ -7510,8 +9402,11 @@
       <c r="C141" s="1" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E141" s="1" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>754</v>
       </c>
@@ -7521,8 +9416,11 @@
       <c r="C142" s="1" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E142" s="1" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>755</v>
       </c>
@@ -7532,8 +9430,11 @@
       <c r="C143" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E143" s="1" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>756</v>
       </c>
@@ -7543,8 +9444,11 @@
       <c r="C144" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E144" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>757</v>
       </c>
@@ -7554,8 +9458,11 @@
       <c r="C145" s="1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E145" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>758</v>
       </c>
@@ -7565,8 +9472,11 @@
       <c r="C146" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E146" s="1" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>759</v>
       </c>
@@ -7576,8 +9486,11 @@
       <c r="C147" s="1" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E147" s="1" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>760</v>
       </c>
@@ -7587,8 +9500,11 @@
       <c r="C148" s="1" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E148" s="1" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>761</v>
       </c>
@@ -7598,8 +9514,11 @@
       <c r="C149" s="1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E149" s="1" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>762</v>
       </c>
@@ -7609,8 +9528,11 @@
       <c r="C150" s="1" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E150" s="1" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>763</v>
       </c>
@@ -7620,8 +9542,11 @@
       <c r="C151" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E151" s="1" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>764</v>
       </c>
@@ -7631,8 +9556,11 @@
       <c r="C152" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E152" s="1" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>765</v>
       </c>
@@ -7641,6 +9569,9 @@
       </c>
       <c r="C153" s="1" t="s">
         <v>529</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>1551</v>
       </c>
     </row>
   </sheetData>
@@ -7648,30 +9579,31 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7681,8 +9613,11 @@
       <c r="C1" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>381</v>
       </c>
@@ -7692,8 +9627,11 @@
       <c r="C2" s="1" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E2" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>382</v>
       </c>
@@ -7703,8 +9641,11 @@
       <c r="C3" s="1" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E3" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>383</v>
       </c>
@@ -7714,8 +9655,11 @@
       <c r="C4" s="1" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E4" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>384</v>
       </c>
@@ -7725,8 +9669,11 @@
       <c r="C5" s="1" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E5" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>385</v>
       </c>
@@ -7736,8 +9683,11 @@
       <c r="C6" s="1" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E6" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>386</v>
       </c>
@@ -7747,8 +9697,11 @@
       <c r="C7" s="1" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E7" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>387</v>
       </c>
@@ -7758,8 +9711,11 @@
       <c r="C8" s="1" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E8" s="1" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>388</v>
       </c>
@@ -7769,8 +9725,11 @@
       <c r="C9" s="1" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E9" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>389</v>
       </c>
@@ -7780,8 +9739,11 @@
       <c r="C10" s="1" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E10" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>390</v>
       </c>
@@ -7791,8 +9753,11 @@
       <c r="C11" s="1" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E11" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>391</v>
       </c>
@@ -7802,8 +9767,11 @@
       <c r="C12" s="1" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E12" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>392</v>
       </c>
@@ -7813,8 +9781,11 @@
       <c r="C13" s="1" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E13" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>393</v>
       </c>
@@ -7824,8 +9795,11 @@
       <c r="C14" s="1" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E14" s="1" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>394</v>
       </c>
@@ -7835,8 +9809,11 @@
       <c r="C15" s="1" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E15" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>395</v>
       </c>
@@ -7846,8 +9823,11 @@
       <c r="C16" s="1" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E16" s="1" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>396</v>
       </c>
@@ -7857,8 +9837,11 @@
       <c r="C17" s="1" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E17" s="1" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>397</v>
       </c>
@@ -7868,8 +9851,11 @@
       <c r="C18" s="1" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E18" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>398</v>
       </c>
@@ -7879,8 +9865,11 @@
       <c r="C19" s="1" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E19" s="1" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>399</v>
       </c>
@@ -7890,8 +9879,11 @@
       <c r="C20" s="1" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E20" s="1" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>400</v>
       </c>
@@ -7901,8 +9893,11 @@
       <c r="C21" s="1" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E21" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>401</v>
       </c>
@@ -7912,8 +9907,11 @@
       <c r="C22" s="1" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E22" s="1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>402</v>
       </c>
@@ -7923,8 +9921,11 @@
       <c r="C23" s="1" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E23" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>403</v>
       </c>
@@ -7934,8 +9935,11 @@
       <c r="C24" s="1" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E24" s="1" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>404</v>
       </c>
@@ -7945,8 +9949,11 @@
       <c r="C25" s="1" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E25" s="1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>405</v>
       </c>
@@ -7956,8 +9963,11 @@
       <c r="C26" s="1" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E26" s="1" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>406</v>
       </c>
@@ -7967,8 +9977,11 @@
       <c r="C27" s="1" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E27" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>407</v>
       </c>
@@ -7978,8 +9991,11 @@
       <c r="C28" s="1" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E28" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>408</v>
       </c>
@@ -7989,8 +10005,11 @@
       <c r="C29" s="1" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E29" s="1" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>409</v>
       </c>
@@ -8000,8 +10019,11 @@
       <c r="C30" s="1" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E30" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>410</v>
       </c>
@@ -8011,8 +10033,11 @@
       <c r="C31" s="1" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E31" s="1" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>411</v>
       </c>
@@ -8022,8 +10047,11 @@
       <c r="C32" s="1" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E32" s="1" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>412</v>
       </c>
@@ -8033,8 +10061,11 @@
       <c r="C33" s="1" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E33" s="1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>413</v>
       </c>
@@ -8044,8 +10075,11 @@
       <c r="C34" s="1" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E34" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>414</v>
       </c>
@@ -8055,8 +10089,11 @@
       <c r="C35" s="1" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E35" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>415</v>
       </c>
@@ -8066,8 +10103,11 @@
       <c r="C36" s="1" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E36" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>416</v>
       </c>
@@ -8077,8 +10117,11 @@
       <c r="C37" s="1" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E37" s="1" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>417</v>
       </c>
@@ -8088,8 +10131,11 @@
       <c r="C38" s="1" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E38" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>418</v>
       </c>
@@ -8099,8 +10145,11 @@
       <c r="C39" s="1" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E39" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>419</v>
       </c>
@@ -8110,8 +10159,11 @@
       <c r="C40" s="1" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E40" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>420</v>
       </c>
@@ -8121,8 +10173,11 @@
       <c r="C41" s="1" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E41" s="1" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>421</v>
       </c>
@@ -8132,8 +10187,11 @@
       <c r="C42" s="1" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E42" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>422</v>
       </c>
@@ -8143,8 +10201,11 @@
       <c r="C43" s="1" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E43" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>423</v>
       </c>
@@ -8154,8 +10215,11 @@
       <c r="C44" s="1" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E44" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>424</v>
       </c>
@@ -8165,8 +10229,11 @@
       <c r="C45" s="1" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E45" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>766</v>
       </c>
@@ -8176,11 +10243,14 @@
       <c r="C46" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>767</v>
       </c>
@@ -8190,8 +10260,11 @@
       <c r="C47" s="1" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E47" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>778</v>
       </c>
@@ -8201,8 +10274,11 @@
       <c r="C48" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E48" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>768</v>
       </c>
@@ -8212,8 +10288,11 @@
       <c r="C49" s="1" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E49" s="1" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>779</v>
       </c>
@@ -8223,8 +10302,11 @@
       <c r="C50" s="1" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E50" s="1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>769</v>
       </c>
@@ -8234,8 +10316,11 @@
       <c r="C51" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E51" s="1" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>770</v>
       </c>
@@ -8245,8 +10330,11 @@
       <c r="C52" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E52" s="1" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>784</v>
       </c>
@@ -8256,8 +10344,11 @@
       <c r="C53" s="1" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E53" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>780</v>
       </c>
@@ -8267,8 +10358,11 @@
       <c r="C54" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E54" s="1" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>781</v>
       </c>
@@ -8278,8 +10372,11 @@
       <c r="C55" s="1" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E55" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>785</v>
       </c>
@@ -8289,8 +10386,11 @@
       <c r="C56" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E56" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>786</v>
       </c>
@@ -8300,8 +10400,11 @@
       <c r="C57" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E57" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>782</v>
       </c>
@@ -8311,8 +10414,11 @@
       <c r="C58" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E58" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>787</v>
       </c>
@@ -8322,8 +10428,11 @@
       <c r="C59" s="1" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E59" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>788</v>
       </c>
@@ -8333,8 +10442,11 @@
       <c r="C60" s="1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E60" s="1" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>789</v>
       </c>
@@ -8344,8 +10456,11 @@
       <c r="C61" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E61" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>790</v>
       </c>
@@ -8355,8 +10470,11 @@
       <c r="C62" s="1" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E62" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>791</v>
       </c>
@@ -8366,8 +10484,11 @@
       <c r="C63" s="1" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E63" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>974</v>
       </c>
@@ -8377,8 +10498,11 @@
       <c r="C64" s="1" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E64" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>792</v>
       </c>
@@ -8388,8 +10512,11 @@
       <c r="C65" s="1" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E65" s="1" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>793</v>
       </c>
@@ -8399,8 +10526,11 @@
       <c r="C66" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E66" s="1" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>794</v>
       </c>
@@ -8410,8 +10540,11 @@
       <c r="C67" s="1" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E67" s="1" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>660</v>
       </c>
@@ -8421,8 +10554,11 @@
       <c r="C68" s="1" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E68" s="1" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>662</v>
       </c>
@@ -8432,8 +10568,11 @@
       <c r="C69" s="1" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E69" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>661</v>
       </c>
@@ -8443,8 +10582,11 @@
       <c r="C70" s="1" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E70" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>663</v>
       </c>
@@ -8454,8 +10596,11 @@
       <c r="C71" s="1" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E71" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>664</v>
       </c>
@@ -8465,8 +10610,11 @@
       <c r="C72" s="1" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E72" s="1" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>665</v>
       </c>
@@ -8476,8 +10624,11 @@
       <c r="C73" s="1" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E73" s="1" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>795</v>
       </c>
@@ -8487,8 +10638,11 @@
       <c r="C74" s="1" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E74" s="1" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>796</v>
       </c>
@@ -8498,8 +10652,11 @@
       <c r="C75" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E75" s="1" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>797</v>
       </c>
@@ -8509,8 +10666,11 @@
       <c r="C76" s="1" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E76" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>798</v>
       </c>
@@ -8520,8 +10680,11 @@
       <c r="C77" s="1" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E77" s="1" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>783</v>
       </c>
@@ -8531,8 +10694,11 @@
       <c r="C78" s="1" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E78" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>799</v>
       </c>
@@ -8542,8 +10708,11 @@
       <c r="C79" s="1" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E79" s="1" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>800</v>
       </c>
@@ -8553,8 +10722,11 @@
       <c r="C80" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E80" s="1" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>771</v>
       </c>
@@ -8565,10 +10737,13 @@
         <v>564</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>772</v>
       </c>
@@ -8578,8 +10753,11 @@
       <c r="C82" s="1" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E82" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>801</v>
       </c>
@@ -8589,8 +10767,11 @@
       <c r="C83" s="1" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E83" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>773</v>
       </c>
@@ -8600,8 +10781,11 @@
       <c r="C84" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E84" s="1" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>802</v>
       </c>
@@ -8611,8 +10795,11 @@
       <c r="C85" s="1" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E85" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>774</v>
       </c>
@@ -8622,8 +10809,11 @@
       <c r="C86" s="1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E86" s="1" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>775</v>
       </c>
@@ -8633,8 +10823,11 @@
       <c r="C87" s="1" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E87" s="1" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>776</v>
       </c>
@@ -8644,8 +10837,11 @@
       <c r="C88" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E88" s="1" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>777</v>
       </c>
@@ -8655,8 +10851,11 @@
       <c r="C89" s="1" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E89" s="1" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>803</v>
       </c>
@@ -8666,8 +10865,11 @@
       <c r="C90" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E90" s="1" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>1089</v>
       </c>
@@ -8677,8 +10879,11 @@
       <c r="C91" s="1" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E91" s="1" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1090</v>
       </c>
@@ -8688,8 +10893,11 @@
       <c r="C92" s="1" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E92" s="1" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>1095</v>
       </c>
@@ -8699,8 +10907,11 @@
       <c r="C93" s="1" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E93" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>804</v>
       </c>
@@ -8710,8 +10921,11 @@
       <c r="C94" s="1" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E94" s="1" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>1098</v>
       </c>
@@ -8721,8 +10935,11 @@
       <c r="C95" s="1" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E95" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>1093</v>
       </c>
@@ -8732,8 +10949,11 @@
       <c r="C96" s="1" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E96" s="1" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>805</v>
       </c>
@@ -8743,8 +10963,11 @@
       <c r="C97" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E97" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>807</v>
       </c>
@@ -8754,8 +10977,11 @@
       <c r="C98" s="1" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E98" s="1" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>808</v>
       </c>
@@ -8765,8 +10991,11 @@
       <c r="C99" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E99" s="1" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>806</v>
       </c>
@@ -8776,8 +11005,11 @@
       <c r="C100" s="1" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E100" s="1" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>809</v>
       </c>
@@ -8787,8 +11019,11 @@
       <c r="C101" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E101" s="1" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>810</v>
       </c>
@@ -8798,8 +11033,11 @@
       <c r="C102" s="1" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E102" s="1" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>811</v>
       </c>
@@ -8809,8 +11047,11 @@
       <c r="C103" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E103" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>812</v>
       </c>
@@ -8820,8 +11061,11 @@
       <c r="C104" s="1" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E104" s="1" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>813</v>
       </c>
@@ -8831,8 +11075,11 @@
       <c r="C105" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E105" s="1" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>814</v>
       </c>
@@ -8842,8 +11089,11 @@
       <c r="C106" s="1" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E106" s="1" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>815</v>
       </c>
@@ -8853,8 +11103,11 @@
       <c r="C107" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E107" s="1" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>972</v>
       </c>
@@ -8864,8 +11117,11 @@
       <c r="C108" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E108" s="1" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>1082</v>
       </c>
@@ -8875,8 +11131,11 @@
       <c r="C109" s="1" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E109" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1085</v>
       </c>
@@ -8886,8 +11145,11 @@
       <c r="C110" s="1" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E110" s="1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>816</v>
       </c>
@@ -8897,8 +11159,11 @@
       <c r="C111" s="1" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E111" s="1" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>1088</v>
       </c>
@@ -8908,8 +11173,11 @@
       <c r="C112" s="1" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E112" s="1" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>817</v>
       </c>
@@ -8919,8 +11187,11 @@
       <c r="C113" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E113" s="1" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>818</v>
       </c>
@@ -8930,8 +11201,11 @@
       <c r="C114" s="1" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E114" s="1" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>819</v>
       </c>
@@ -8941,8 +11215,11 @@
       <c r="C115" s="1" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E115" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>820</v>
       </c>
@@ -8952,8 +11229,11 @@
       <c r="C116" s="1" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E116" s="1" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>821</v>
       </c>
@@ -8963,8 +11243,11 @@
       <c r="C117" s="1" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E117" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>822</v>
       </c>
@@ -8974,8 +11257,11 @@
       <c r="C118" s="1" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E118" s="1" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>823</v>
       </c>
@@ -8985,8 +11271,11 @@
       <c r="C119" s="1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E119" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>824</v>
       </c>
@@ -8996,8 +11285,11 @@
       <c r="C120" s="1" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E120" s="1" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>825</v>
       </c>
@@ -9007,8 +11299,11 @@
       <c r="C121" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E121" s="1" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>826</v>
       </c>
@@ -9018,8 +11313,11 @@
       <c r="C122" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E122" s="1" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>827</v>
       </c>
@@ -9029,8 +11327,11 @@
       <c r="C123" s="1" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E123" s="1" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>828</v>
       </c>
@@ -9040,8 +11341,11 @@
       <c r="C124" s="1" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E124" s="1" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>829</v>
       </c>
@@ -9051,8 +11355,11 @@
       <c r="C125" s="1" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E125" s="1" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>830</v>
       </c>
@@ -9062,8 +11369,11 @@
       <c r="C126" s="1" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E126" s="1" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>831</v>
       </c>
@@ -9073,8 +11383,11 @@
       <c r="C127" s="1" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E127" s="1" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>832</v>
       </c>
@@ -9084,8 +11397,11 @@
       <c r="C128" s="1" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E128" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>657</v>
       </c>
@@ -9095,8 +11411,11 @@
       <c r="C129" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E129" s="1" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>656</v>
       </c>
@@ -9106,8 +11425,11 @@
       <c r="C130" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E130" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>655</v>
       </c>
@@ -9117,8 +11439,11 @@
       <c r="C131" s="1" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E131" s="1" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>654</v>
       </c>
@@ -9128,8 +11453,11 @@
       <c r="C132" s="1" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E132" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>653</v>
       </c>
@@ -9139,8 +11467,11 @@
       <c r="C133" s="1" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E133" s="1" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>887</v>
       </c>
@@ -9150,8 +11481,11 @@
       <c r="C134" s="1" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E134" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>1031</v>
       </c>
@@ -9161,8 +11495,11 @@
       <c r="C135" s="1" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E135" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>1036</v>
       </c>
@@ -9172,8 +11509,11 @@
       <c r="C136" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E136" s="1" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>1038</v>
       </c>
@@ -9183,8 +11523,11 @@
       <c r="C137" s="1" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E137" s="1" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>1039</v>
       </c>
@@ -9194,8 +11537,11 @@
       <c r="C138" s="1" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E138" s="1" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>1040</v>
       </c>
@@ -9205,8 +11551,11 @@
       <c r="C139" s="1" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E139" s="1" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>978</v>
       </c>
@@ -9216,8 +11565,11 @@
       <c r="C140" s="1" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E140" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>980</v>
       </c>
@@ -9227,8 +11579,11 @@
       <c r="C141" s="1" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E141" s="1" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>982</v>
       </c>
@@ -9238,8 +11593,11 @@
       <c r="C142" s="1" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E142" s="1" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>1006</v>
       </c>
@@ -9249,8 +11607,11 @@
       <c r="C143" s="1" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E143" s="1" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>1007</v>
       </c>
@@ -9260,8 +11621,11 @@
       <c r="C144" s="1" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E144" s="1" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>1008</v>
       </c>
@@ -9271,8 +11635,11 @@
       <c r="C145" s="1" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E145" s="1" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>1009</v>
       </c>
@@ -9282,8 +11649,11 @@
       <c r="C146" s="1" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E146" s="1" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>1010</v>
       </c>
@@ -9293,8 +11663,11 @@
       <c r="C147" s="1" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E147" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>1011</v>
       </c>
@@ -9304,8 +11677,11 @@
       <c r="C148" s="1" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E148" s="1" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>1012</v>
       </c>
@@ -9315,8 +11691,11 @@
       <c r="C149" s="1" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E149" s="1" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>1013</v>
       </c>
@@ -9326,8 +11705,11 @@
       <c r="C150" s="1" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E150" s="1" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>1014</v>
       </c>
@@ -9337,8 +11719,11 @@
       <c r="C151" s="1" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E151" s="1" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>1015</v>
       </c>
@@ -9348,8 +11733,11 @@
       <c r="C152" s="1" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E152" s="1" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>1016</v>
       </c>
@@ -9359,8 +11747,11 @@
       <c r="C153" s="1" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E153" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>1017</v>
       </c>
@@ -9370,8 +11761,11 @@
       <c r="C154" s="1" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E154" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>1018</v>
       </c>
@@ -9381,8 +11775,11 @@
       <c r="C155" s="1" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E155" s="1" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>1019</v>
       </c>
@@ -9392,8 +11789,11 @@
       <c r="C156" s="1" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E156" s="1" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>1020</v>
       </c>
@@ -9403,8 +11803,11 @@
       <c r="C157" s="1" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E157" s="1" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>1021</v>
       </c>
@@ -9414,8 +11817,11 @@
       <c r="C158" s="1" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E158" s="1" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>1022</v>
       </c>
@@ -9425,8 +11831,11 @@
       <c r="C159" s="1" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E159" s="1" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>1023</v>
       </c>
@@ -9436,8 +11845,11 @@
       <c r="C160" s="1" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E160" s="1" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>1024</v>
       </c>
@@ -9447,8 +11859,11 @@
       <c r="C161" s="1" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E161" s="1" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>1025</v>
       </c>
@@ -9458,8 +11873,11 @@
       <c r="C162" s="1" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E162" s="1" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>1026</v>
       </c>
@@ -9469,8 +11887,11 @@
       <c r="C163" s="1" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E163" s="1" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>1027</v>
       </c>
@@ -9480,8 +11901,11 @@
       <c r="C164" s="1" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E164" s="1" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>1028</v>
       </c>
@@ -9491,8 +11915,11 @@
       <c r="C165" s="1" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E165" s="1" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>1041</v>
       </c>
@@ -9502,8 +11929,11 @@
       <c r="C166" s="1" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E166" s="1" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>1042</v>
       </c>
@@ -9513,8 +11943,11 @@
       <c r="C167" s="1" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E167" s="1" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>1029</v>
       </c>
@@ -9524,10 +11957,13 @@
       <c r="C168" s="1" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E168" s="1" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>1108</v>
@@ -9535,10 +11971,13 @@
       <c r="C169" s="1" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E169" s="1" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>1110</v>
@@ -9546,10 +11985,13 @@
       <c r="C170" s="1" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E170" s="1" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>1112</v>
@@ -9557,247 +11999,316 @@
       <c r="C171" s="1" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E171" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A173" s="1" t="s">
+      <c r="B174" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A174" s="1" t="s">
+      <c r="B175" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A175" s="1" t="s">
+      <c r="B176" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A176" s="1" t="s">
+      <c r="B177" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A177" s="1" t="s">
+      <c r="B178" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A178" s="1" t="s">
+      <c r="B179" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A179" s="1" t="s">
+      <c r="B180" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A180" s="1" t="s">
+      <c r="B181" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A181" s="1" t="s">
+      <c r="B182" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A182" s="1" t="s">
+      <c r="B183" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A183" s="1" t="s">
+      <c r="B184" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A184" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B184" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A185" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>1140</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E185" s="1" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E186" s="1" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E187" s="1" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E188" s="1" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E189" s="1" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E190" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E191" s="1" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C192" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A193" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>1174</v>
+      <c r="E193" s="1" t="s">
+        <v>1568</v>
       </c>
     </row>
   </sheetData>

--- a/msg/text/Messages.xlsx
+++ b/msg/text/Messages.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC1E21A-9588-4BD6-BD3E-877EDDC40045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TJS2" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="1589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="1591">
   <si>
     <t>TJSInternalError</t>
   </si>
@@ -287,9 +288,6 @@
     <t>不正な文字です : \'%1\'</t>
   </si>
   <si>
-    <t>%1 がありません</t>
-  </si>
-  <si>
     <t>文法エラーです(%1)</t>
   </si>
   <si>
@@ -1107,9 +1105,6 @@
     <t>自分自身を親とすることはできません</t>
   </si>
   <si>
-    <t>自分自身の前後や親の異なるレイヤの前後に移動することはできません</t>
-  </si>
-  <si>
     <t>プライマリレイヤや兄弟の無いレイヤは前後に移動することはできません</t>
   </si>
   <si>
@@ -4581,18 +4576,12 @@
     <t>请使用 = 运算符来对比。（使用 '(A=B)!=0' 来与 0 作对比）</t>
   </si>
   <si>
-    <t>进行了错误的表达式</t>
-  </si>
-  <si>
     <t>内存不足</t>
   </si>
   <si>
     <t>不能从当前表达式中获取到结果</t>
   </si>
   <si>
-    <t>发生了访问 null 对象</t>
-  </si>
-  <si>
     <t>未找到 Member \"%1\"</t>
   </si>
   <si>
@@ -4626,9 +4615,6 @@
     <t>不能写 \"break\" 或者 \"continue\" 到这里</t>
   </si>
   <si>
-    <t>不能写 \"case\" 到这里</t>
-  </si>
-  <si>
     <t>不能把 \"return\" 写到这里</t>
   </si>
   <si>
@@ -4638,15 +4624,9 @@
     <t>number 处理时发生了错误</t>
   </si>
   <si>
-    <t>注释未关闭</t>
-  </si>
-  <si>
     <t>未知字符：\'%1\'</t>
   </si>
   <si>
-    <t>异常发生：%1</t>
-  </si>
-  <si>
     <t>语法有误 （%1）</t>
   </si>
   <si>
@@ -4659,9 +4639,6 @@
     <t>VM 代码有误</t>
   </si>
   <si>
-    <t>错误：取值范围以外</t>
-  </si>
-  <si>
     <t>对 只读/只写 属性进行了错误操作</t>
   </si>
   <si>
@@ -4687,9 +4664,6 @@
     <t>不正确的字符串格式</t>
   </si>
   <si>
-    <t>被 0 整除了</t>
-  </si>
-  <si>
     <t>不能重新构造随机数列</t>
   </si>
   <si>
@@ -4708,9 +4682,6 @@
     <t>以为对象类型来分组</t>
   </si>
   <si>
-    <t>%4：运行代码在正在删除的进城中，对象 %1[%2] / 对象创建在：%3</t>
-  </si>
-  <si>
     <t>写入错误</t>
   </si>
   <si>
@@ -4891,9 +4862,6 @@
     <t>图层大小不能指定为 0 以下的数值。</t>
   </si>
   <si>
-    <t>不能把主图层设为为隐藏。</t>
-  </si>
-  <si>
     <t>不能移动主图层。</t>
   </si>
   <si>
@@ -4906,36 +4874,15 @@
     <t>已经设置为 Modal 层或者不能设置隐藏层/无效层为弹出层。</t>
   </si>
   <si>
-    <t>非可描绘层类型。</t>
-  </si>
-  <si>
-    <t>来源 layer 未包含图片。</t>
-  </si>
-  <si>
     <t>未被支持的 layer 类型 %1</t>
   </si>
   <si>
-    <t>不可描绘的 face 类型</t>
-  </si>
-  <si>
-    <t>不能转换 layer 类型到指定的 direction</t>
-  </si>
-  <si>
     <t>当前字型不支持负透明度。</t>
   </si>
   <si>
-    <t>转换源包含 bitmap 以外的领域。请指定为正确的转换范围。</t>
-  </si>
-  <si>
-    <t>模糊（blur）矩形的范围一定是包含（0,0）的。不能指定 left 和 right 两个都是正直或者都是负值。（top 和 bottom 一样。）</t>
-  </si>
-  <si>
     <t>指定的模糊（blur）矩形的范围太大。模糊矩形的像素值应小于 1677 万。</t>
   </si>
   <si>
-    <t>正在处理 focus 的过程中不能进行新的 focus 指定。</t>
-  </si>
-  <si>
     <t>Window 内未找到 Layer。</t>
   </si>
   <si>
@@ -4951,15 +4898,6 @@
     <t>未知事件(Event) %1</t>
   </si>
   <si>
-    <t>超过允许矩形指定的范围了</t>
-  </si>
-  <si>
-    <t>在画面更新时不能执行该方法</t>
-  </si>
-  <si>
-    <t>实例化当前类失败</t>
-  </si>
-  <si>
     <t>未支持的 Wave 文件格式 %1</t>
   </si>
   <si>
@@ -4978,9 +4916,6 @@
     <t>请声明 transition 发生的源</t>
   </si>
   <si>
-    <t>Layer 不能持有图片</t>
-  </si>
-  <si>
     <t>执行 transition 的源和目的都需要持有图片</t>
   </si>
   <si>
@@ -4996,9 +4931,6 @@
     <t>发生 transition 的源是自身</t>
   </si>
   <si>
-    <t>警告：%1 方法的第二个参数 %2 已在 2.23 beta 2 中开始不推荐使用。请使用 Layer.holdAlpha 属性作替代。</t>
-  </si>
-  <si>
     <t>不能同时连接多个 WaveSoundBuffer</t>
   </si>
   <si>
@@ -5014,9 +4946,6 @@
     <t>拷贝粘贴板数据失败</t>
   </si>
   <si>
-    <t>UTF-16 载入失败，转换为 UTF-8</t>
-  </si>
-  <si>
     <t>（info）读取启动脚本中：</t>
   </si>
   <si>
@@ -5066,9 +4995,6 @@
     <t>不能使用 '%1$s' 字体</t>
   </si>
   <si>
-    <t>字体光栅化发生错误</t>
-  </si>
-  <si>
     <t>不支持 BitFields</t>
   </si>
   <si>
@@ -5387,10 +5313,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>%4：运行代码在正在删除的进城中，对象 %1[%2] / 对象创建在：%3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>不支持的头文件版本。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5407,14 +5329,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DrawGlyph 失败</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Panic！Layer 对象没有属性构造方法。未进行调用构造方法？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>未知 transition 类型</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5455,10 +5369,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TLG 图片不能用作 province(_p) 或者 mask(_m) 图像的 universal transition rule。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">不支持的色彩数量 : </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5483,18 +5393,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TLG SDS tag 结构异常，名字长度后面缺少列。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TLG SDS tag 结构异常，缺少等号后面的值</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TLG SDS tag 结构异常，值长度后面缺少列。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TLG SDS tag 结构异常，tag 后面缺少逗号</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5511,10 +5409,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>无效的预渲染字体文件或者未找到签名文件</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>非 16bit Unicode 字体文件。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6016,13 +5910,153 @@
   </si>
   <si>
     <t xml:space="preserve"> = (触发异常)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不能移动主图层或独立图层。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>图源 layer 未包含图片。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不能将下一图层移动到自身或非同代图层。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不能移动到其它主图层下。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>模糊（blur）矩形的范围必须包含（0,0）。不能指定 left 和 right 两个都是正直或者都是负值。（top 和 bottom 一样。）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>处理焦点时不能修改焦点。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不能隐藏主图层。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>此类图层不可绘制。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>face %1 类型不可绘制。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不能按指定的 direction 转换图层。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>转换源设定的范围超出 bitmap 的范围。请指定为正确的转换范围。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>超过矩形边界。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在画面更新时不能执行该方法。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>实例化当前类失败。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>这个 Layer 不能持有图片</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警告：%1 方法的第%2 个参数已在 2.23 beta 2 中过时。请改用 Layer.holdAlpha 属性。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光栅化字体时发生错误</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Panic！Layer 对象没有恰当地构造。未调用构造方法？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DrawGlyph 失败。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLG cannot be used as universal transition rule, province(_p) or mask(_m) images.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLG SDS tag 结构异常，名字长度后面缺少分号。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLG SDS tag 结构异常，值长度后面缺少分号。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLG SDS tag 结构异常，名称前缺少等号。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>无效的预渲染字体文件或者未找到特征文件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注释未闭合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">此处不能为 \"case\" </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表达式不能用作左值</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解引用null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%1 がありません</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>缺少：%1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>超出取值范围</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不能除以0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%4：在对象析构时执行代码，对象 %1[%2] / 对象创建在：%3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UTF-16 载入失败，尝试使用 UTF-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分自身の前後や親の異なるレイヤの前後に移動することはできません</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6453,11 +6487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6473,16 +6507,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -6493,10 +6527,10 @@
         <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -6507,10 +6541,10 @@
         <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -6521,10 +6555,10 @@
         <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -6532,13 +6566,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -6549,10 +6583,10 @@
         <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -6563,10 +6597,10 @@
         <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -6577,10 +6611,10 @@
         <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -6591,10 +6625,10 @@
         <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -6605,10 +6639,10 @@
         <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1165</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -6619,10 +6653,10 @@
         <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -6633,10 +6667,10 @@
         <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -6647,10 +6681,10 @@
         <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1168</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -6661,10 +6695,10 @@
         <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -6675,10 +6709,10 @@
         <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -6689,10 +6723,10 @@
         <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -6703,10 +6737,10 @@
         <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -6717,10 +6751,10 @@
         <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -6731,10 +6765,10 @@
         <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -6745,10 +6779,10 @@
         <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -6759,10 +6793,10 @@
         <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -6773,10 +6807,10 @@
         <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -6787,10 +6821,10 @@
         <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -6801,10 +6835,10 @@
         <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -6815,10 +6849,10 @@
         <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1180</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -6829,10 +6863,10 @@
         <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -6843,10 +6877,10 @@
         <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -6857,10 +6891,10 @@
         <v>85</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -6871,10 +6905,10 @@
         <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1184</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -6885,10 +6919,10 @@
         <v>87</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -6896,13 +6930,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>1584</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1186</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -6910,13 +6944,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -6924,13 +6958,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -6938,13 +6972,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -6952,13 +6986,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -6966,13 +7000,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1191</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -6980,13 +7014,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -6994,13 +7028,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -7008,13 +7042,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -7022,13 +7056,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -7036,13 +7070,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -7050,13 +7084,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -7064,13 +7098,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -7078,13 +7112,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -7092,13 +7126,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1200</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -7106,13 +7140,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
@@ -7120,13 +7154,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
@@ -7134,13 +7168,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
@@ -7148,13 +7182,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
@@ -7162,16 +7196,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -7179,13 +7213,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -7193,16 +7227,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -7210,13 +7244,13 @@
         <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -7224,13 +7258,13 @@
         <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
@@ -7238,13 +7272,13 @@
         <v>52</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
@@ -7252,16 +7286,16 @@
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1428</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
@@ -7269,13 +7303,13 @@
         <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1429</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
@@ -7283,13 +7317,13 @@
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1430</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
@@ -7297,16 +7331,16 @@
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1431</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
@@ -7314,13 +7348,13 @@
         <v>55</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1207</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
@@ -7328,13 +7362,13 @@
         <v>56</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
@@ -7342,13 +7376,13 @@
         <v>57</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
@@ -7356,13 +7390,13 @@
         <v>58</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
@@ -7370,153 +7404,153 @@
         <v>59</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
     </row>
   </sheetData>
@@ -7527,17 +7561,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView topLeftCell="B127" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.375" style="1" customWidth="1"/>
@@ -7549,2191 +7583,2191 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1240</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1241</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1243</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1244</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1246</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1248</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1251</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1252</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1262</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1150</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>1153</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1267</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1268</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1269</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>340</v>
+        <v>1590</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>919</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>920</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>921</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1270</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1271</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1272</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1273</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1274</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1275</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1276</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1277</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1278</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1279</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1280</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1281</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1282</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1283</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1284</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1285</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1286</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1287</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1288</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1289</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1290</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1291</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1292</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1293</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1294</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1295</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1296</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1297</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1298</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1299</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1301</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1302</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1303</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1304</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1305</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1306</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1307</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1308</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1309</v>
+        <v>1285</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1310</v>
+        <v>1286</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1312</v>
+        <v>1288</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1313</v>
+        <v>1289</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1314</v>
+        <v>1290</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1315</v>
+        <v>1291</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1316</v>
+        <v>1292</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1317</v>
+        <v>1293</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1318</v>
+        <v>1294</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1319</v>
+        <v>1295</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1320</v>
+        <v>1296</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1321</v>
+        <v>1297</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1322</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1323</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1324</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1325</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1326</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1327</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1328</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1329</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1432</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1433</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1434</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1435</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1436</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1437</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1439</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1438</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1440</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1441</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1444</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1442</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1443</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1445</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1446</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1447</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>500</v>
+        <v>1575</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>1448</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1449</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1450</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1451</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1452</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1453</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1454</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1455</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1456</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1457</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1458</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1459</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1460</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1461</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1462</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1463</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1464</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1465</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1466</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1467</v>
+        <v>1434</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -9741,11 +9775,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -9753,7 +9787,7 @@
     <col min="1" max="1" width="50.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="78.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="84.125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -9763,2707 +9797,2707 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1481</v>
+        <v>1448</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1478</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1477</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1475</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1482</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1483</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1484</v>
+        <v>1451</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1485</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1330</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1486</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1331</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1487</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1476</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1488</v>
+        <v>1455</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1479</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1489</v>
+        <v>1456</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1480</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1332</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1490</v>
+        <v>1457</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1333</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1334</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1335</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1491</v>
+        <v>1458</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1492</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1336</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1337</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1493</v>
+        <v>1460</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1338</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1494</v>
+        <v>1461</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1339</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1340</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1341</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>1495</v>
+        <v>1462</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1496</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1342</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1343</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1344</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1345</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1346</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1347</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1348</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1349</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1497</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1350</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1498</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1499</v>
+        <v>1466</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1500</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1351</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1352</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1353</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1354</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1501</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1588</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1355</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1356</v>
+        <v>1331</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1357</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1502</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1358</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1359</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1360</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1361</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1362</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1363</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1364</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1365</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1366</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1367</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1503</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1368</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1369</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1370</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1371</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1372</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1373</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1504</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1374</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1375</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1376</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1377</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1378</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1379</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1380</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1381</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1382</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1383</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1384</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1383</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1385</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1505</v>
+        <v>1472</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1506</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1386</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1387</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1388</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1389</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1390</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1507</v>
+        <v>1474</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1508</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1391</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1509</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>1074</v>
-      </c>
       <c r="C91" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1392</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>1075</v>
-      </c>
       <c r="C92" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1393</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>1080</v>
-      </c>
       <c r="E93" s="1" t="s">
-        <v>1394</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1395</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>1083</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>1510</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1511</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1468</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1469</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1470</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1471</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1472</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1473</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1396</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1514</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1513</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1512</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1397</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1515</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1516</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1517</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1398</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1518</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1399</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1400</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1401</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1519</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1320</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1402</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1520</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1521</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1403</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1404</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1405</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1406</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1407</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1408</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1409</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1410</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1411</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1522</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1412</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1413</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1414</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>879</v>
-      </c>
       <c r="E134" s="1" t="s">
-        <v>1523</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1524</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1415</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1525</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1416</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1417</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1526</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1418</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1419</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1420</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1421</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1527</v>
+        <v>1494</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1528</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1529</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1530</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1531</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1532</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1533</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1534</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1535</v>
+        <v>1502</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1536</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1537</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1422</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1538</v>
+        <v>1505</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1539</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1423</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1540</v>
+        <v>1507</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1541</v>
+        <v>1508</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1542</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1543</v>
+        <v>1510</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1544</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>1424</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>1545</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>1546</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1425</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1547</v>
+        <v>1514</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1548</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1549</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1550</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1426</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1551</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1427</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1587</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1552</v>
+        <v>1519</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1553</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>1556</v>
+        <v>1523</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1559</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>1583</v>
+        <v>1550</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1557</v>
+        <v>1524</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>1584</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1558</v>
+        <v>1525</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1560</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>1582</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1581</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1580</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1579</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1578</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1577</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1474</v>
+        <v>1441</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>1576</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1575</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1561</v>
+        <v>1528</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1585</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1586</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1570</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>1571</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1572</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1573</v>
+        <v>1540</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1574</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>1564</v>
+        <v>1531</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1562</v>
+        <v>1529</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1563</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1565</v>
+        <v>1532</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1566</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1567</v>
+        <v>1534</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1568</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1569</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>1144</v>
-      </c>
       <c r="C192" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1555</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>1554</v>
+        <v>1521</v>
       </c>
     </row>
   </sheetData>
